--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29256FFD-B071-487B-A3DF-C4951572E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD28CF-F4F0-4163-9A21-9130ED1C7450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="#hr.employees" sheetId="3" r:id="rId3"/>
     <sheet name="#hr.groups.level" sheetId="5" r:id="rId4"/>
     <sheet name="#hr.groups" sheetId="4" r:id="rId5"/>
-    <sheet name="Instruction - Chỉ dẫn" sheetId="6" r:id="rId6"/>
+    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>E-Mail</t>
   </si>
@@ -95,30 +95,12 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>Quản lý 1</t>
-  </si>
-  <si>
-    <t>Tiêu đề quản lý 1</t>
-  </si>
-  <si>
-    <t>Quản lý 2</t>
-  </si>
-  <si>
-    <t>Tiêu đề quản lý 2</t>
-  </si>
-  <si>
     <t>Phân cấp (*, định danh)</t>
   </si>
   <si>
     <t>Mô tả (*)</t>
   </si>
   <si>
-    <t>Mô tả quản lý 1</t>
-  </si>
-  <si>
-    <t>Mô tả quản lý 2</t>
-  </si>
-  <si>
     <t>#account.users</t>
   </si>
   <si>
@@ -216,13 +198,346 @@
   </si>
   <si>
     <t>Mô tả tên trang tính</t>
+  </si>
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>- Thành viên của phòng ban
+- Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees. 
+- Ví dụ: EMP0001,EMP0002</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang
+- Ví dụ: BGD</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Tên đại diện cho vai trò
+- Ví dụ: Ban Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Chuỗi định danh người dùng dùng để đăng nhập vào hệ thống
+- Chỉ chứa chữ cái, số, gạch ngang, gạch dưới
+- Ví dụ: anv</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Họ của người dùng
+- Ví dụ: Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Tên của người dùng
+- Ví dụ: A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Bắt buộc
+- Mật khẩu truy cập của người dùng
+</t>
+  </si>
+  <si>
+    <t>- Địa chỉ thư điện tử của người dùng - sử dụng địa chỉ này để lấy lại mật khẩu.
+- Ví dụ: anv@example.com</t>
+  </si>
+  <si>
+    <t>- Số điện thoại của người dùng.
+- Định dạng số điện thoại ở VN
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Mã người dùng tại #account.users 
+- Người dùng liên kết với nhân viên
+- Ví dụ: anv</t>
+  </si>
+  <si>
+    <t>- Mã của phòng ban tại #hr.groups
+- Phòng ban mà nhân viên thuộc về
+- Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Một số định danh của phân cấp nhóm
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mô tả phân cấp nhóm
+- Ví dụ: Phân cấp thể hiện nhóm có vai trò lãnh đạo doanh nghiệp</t>
+  </si>
+  <si>
+    <t>- Mô tả cho trưởng quản lý của cấp nhóm
+- Ví dụ: Tổng Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Mô tả cho phó quản lý cấp nhóm
+- Ví dụ: Phó Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Mã của nhóm (còn được gọi là phòng ban)
+- Bao gồm chữ cái, số, gạch ngang, gạch dưới.
+Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Tên của nhóm 
+- Ví dụ: Quản Lý Điều Hành</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã định danh của phân cấp nhóm tại #hr.groups.level
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Mã định danh của nhóm mà phân bổ cấp trên/lớp trên cho nhóm này tại #hr.groups
+- Vui lòng đặt dòng không có lớp cha ở trên để đảm bảo nó được tạo trước khi được tại các con.
+- Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Mô tả của nhóm này</t>
+  </si>
+  <si>
+    <t>- Mã nhân viên của trưởng quản lý nhóm
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>Quản lý trưởng</t>
+  </si>
+  <si>
+    <t>Tiêu đề quản lý trưởng</t>
+  </si>
+  <si>
+    <t>Quản lý phó</t>
+  </si>
+  <si>
+    <t>Tiêu đề quản lý phó</t>
+  </si>
+  <si>
+    <t>- Tiêu đề của quản lý trưởng
+- Ví dụ: Tổng Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Mô tả của quản lý phó
+- Ví dụ: Phó Giám Đốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả quản lý trưởng </t>
+  </si>
+  <si>
+    <t>Mô tả quản lý phó</t>
+  </si>
+  <si>
+    <t>- Thành viên của phòng ban
+- Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees. 
+- Nhân viên liên kết sẽ tự động cập nhật thành nhóm này
+- Ví dụ: EMP0001,EMP0002</t>
+  </si>
+  <si>
+    <t>- Mã của vai trò tại #hr.roles
+- Danh sách mã vai trò liên kết với nhau bằng dấu phẩy.
+- Ví dụ: QL</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Tên của nhân viên
+- Ví dụ: Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Họ của nhân viên
+- Ví dụ: A</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 25
+- Định dạng số điện thoại ở VN
+- Số điện thoại liên lạc của nhân viên
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 150
+- Địa chỉ thư điện tử của nhân viên
+- Ví dụ: anv@example.com</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 150
+- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang.
+- Mã định danh cho nhân viên
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Định dạng ngày/tháng/năm (dd/mm/YYYY)
+- Ví dụ: 31/01/1970</t>
+  </si>
+  <si>
+    <t>Lưu ý</t>
+  </si>
+  <si>
+    <r>
+      <t>Khuyến cáo nên sử nhập dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> với các </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nhóm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vai trò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dữ liệu trống</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+Sau đó sử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mã nhân viên</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho các trường </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thành viên của nhóm và vai trò</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Việc này nhân viên sẽ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tự động cập nhật các dữ liệu nhóm và vai trò liên kết</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +576,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -276,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -299,25 +622,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -336,7 +669,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -666,46 +1017,64 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="9" customWidth="1"/>
+    <col min="4" max="5" width="15.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>IF(ISBLANK(B2), "", ROW(A2) -1)</f>
-        <v/>
+    <row r="2" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -715,31 +1084,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373C485-720B-481D-9EE6-F43D8158DF65}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="48.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="40" style="9" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -751,18 +1136,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2B7B4-0119-40B2-9AE3-A031B16A0EEC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="4" customWidth="1"/>
-    <col min="7" max="11" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -781,7 +1171,7 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -800,10 +1190,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>IF(ISBLANK(B2), "", ROW(A2) -1)</f>
-        <v/>
+    <row r="2" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -816,39 +1235,51 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="str">
-        <f>IF(ISBLANK(C2), "", ROW(A2) -1)</f>
-        <v/>
+      <c r="B1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -860,64 +1291,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B36471-B49B-4FB2-BB36-0F0FCC8EE11D}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="str">
-        <f>IF(ISBLANK(C2), "", ROW(A2) -1)</f>
-        <v/>
+      <c r="H1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -927,270 +1388,296 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="24.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C32" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
@@ -1198,8 +1685,8 @@
     <mergeCell ref="B21:D21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" location="'Instruction - Chỉ dẫn'!A26" display="Mô tả sheet" xr:uid="{4E5C23A0-A79B-4E2E-B3C3-97237D68867F}"/>
-    <hyperlink ref="A2" location="'Instruction - Chỉ dẫn'!A16" display="Mô tả yêu cầu dữ liệu" xr:uid="{5511E882-0789-4D6F-AEAA-34360E5BE74D}"/>
+    <hyperlink ref="A3" location="'Instructions - Chỉ dẫn'!A26" display="Mô tả tên trang tính" xr:uid="{4E5C23A0-A79B-4E2E-B3C3-97237D68867F}"/>
+    <hyperlink ref="A2" location="'Instructions - Chỉ dẫn'!A16" display="Mô tả yêu cầu dữ liệu" xr:uid="{5511E882-0789-4D6F-AEAA-34360E5BE74D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CD28CF-F4F0-4163-9A21-9130ED1C7450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EC948-FDD0-48A6-B1DD-A04D168B3A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="5" activeTab="12" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,15 @@
     <sheet name="#hr.employees" sheetId="3" r:id="rId3"/>
     <sheet name="#hr.groups.level" sheetId="5" r:id="rId4"/>
     <sheet name="#hr.groups" sheetId="4" r:id="rId5"/>
-    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId6"/>
+    <sheet name="#saledata.currency" sheetId="10" r:id="rId6"/>
+    <sheet name="#saledata.account.group" sheetId="11" r:id="rId7"/>
+    <sheet name="#saledata.account.type" sheetId="12" r:id="rId8"/>
+    <sheet name="#saledata.industry" sheetId="13" r:id="rId9"/>
+    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId10"/>
+    <sheet name="#saledata.contact" sheetId="9" r:id="rId11"/>
+    <sheet name="#saledata.salutation" sheetId="8" r:id="rId12"/>
+    <sheet name="#saledata.account" sheetId="15" r:id="rId13"/>
+    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="205">
   <si>
     <t>E-Mail</t>
   </si>
@@ -75,9 +83,6 @@
   </si>
   <si>
     <t>Ngày tham gia</t>
-  </si>
-  <si>
-    <t>Người sinh</t>
   </si>
   <si>
     <t>Phòng ban</t>
@@ -371,10 +376,6 @@
 - Chỉ chứa chữ cái, số, gạch dưới, gạch ngang.
 - Mã định danh cho nhân viên
 - Ví dụ: EMP0001</t>
-  </si>
-  <si>
-    <t>- Định dạng ngày/tháng/năm (dd/mm/YYYY)
-- Ví dụ: 31/01/1970</t>
   </si>
   <si>
     <t>Lưu ý</t>
@@ -532,12 +533,464 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 100
+- Mã của danh xưng
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Tên của danh xưng
+- Ví dụ: Mrs</t>
+  </si>
+  <si>
+    <t>- Mô tả của danh xưng
+- Ví dụ: Bà</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Bà</t>
+  </si>
+  <si>
+    <t>Tỉ lệ (*)</t>
+  </si>
+  <si>
+    <t>Mã tiền tệ của hệ thống</t>
+  </si>
+  <si>
+    <t>- Tỉ lệ của tiền tệ này so với tiền tệ mặc định
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: VND</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa: 10
+- Là mã so khớp với mã tiền tệ của hệ thống. Giúp việc đồng bộ giá thực tế từ VCB về tỉ lệ tiền tệ.
+- Ví dụ: VND</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Đại Lý Cấp 5</t>
+  </si>
+  <si>
+    <t>Đại lý cấp 005</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: AT001</t>
+  </si>
+  <si>
+    <t>- Tên của nhóm tài khoản
+- Ví dụ: Đại Lý</t>
+  </si>
+  <si>
+    <t>- Tên của loại tài khoản
+- Ví dụ: Khách hàng</t>
+  </si>
+  <si>
+    <t>AT001</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Đây là loại khách hàng</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AT002</t>
+  </si>
+  <si>
+    <t>- Tên của ngành
+- Ví dụ: Dịch vụ</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>Đây là loại dịch vụ</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Bán lẻ</t>
+  </si>
+  <si>
+    <t>Đây là loại bán lẻ</t>
+  </si>
+  <si>
+    <t>- Tên của chính sách
+- Ví dụ: Thanh Toán 30-30-40</t>
+  </si>
+  <si>
+    <t>Đối tượng áp dụng (*)</t>
+  </si>
+  <si>
+    <t>Chính sách (*)</t>
+  </si>
+  <si>
+    <t>- Đối tượng áp dụng cho chính sách này.
+- Lựa chọn 1 trong các lựa chọn sau:
+0: Bán hàng
+1: Mua hàng
+- Ví dụ: 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Mở rộng dòng này để đọc đầy đủ mô tả**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Cấu hình các điều khoản chính sách
+- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
+[Loại, Giá trị, Kiểu ngày, Số ngày, Kích hoạt khi]
+- Loại: Đơn vị để tính cho phần giá trị
+0: Phần trăm
+1: Số lượng
+2: Cân bằng
+- Giá trị: Dữ liệu số thực theo đơn vị tính của loại
+- Kiểu ngày: Kiểu ngày để tính chính xác cho phần số lượng ngày
+1: Ngày làm việc
+2: Ngày dương lịch
+- Số ngày: Dữ liệu số nguyên về số ngày cho công thức, sẽ tuân thủ bộ đếm ngày của "Kiểu ngày"
+- Kích hoạt khi: Là mốc thời gian mà sự kiện sẽ được kích hoạt
+1: Ngày ký hợp đồng
+2: Ngày giao hàng
+3: Ngày xuất hoá đơn
+4: Ngày thông qua 
+5: Kết thúc tháng hoá đơn
+6: Ngày đặt hàng
+- Ví dụ: [[0, 30, 1, 1, 1], [0, 30, 1, 1, 2], [0, 40, 1, 1, 3]] : Cấu hình này là chính sách thanh toán theo phần trăm với mốc 30 - 30 - 40 cho sự kiện ký hợp đồng - giao hàng - xuất hoá đơn và ngày chậm nhất thanh toán là 1 ngày làm việc sau sự kiện kích hoạt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thanh toán 30-30-40</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>[[0, 30, 1, 1, 1], [0, 30, 1, 1, 2], [0, 40, 1, 1, 3]]</t>
+  </si>
+  <si>
+    <t>Người có thông tin liên hệ (*)</t>
+  </si>
+  <si>
+    <t>Danh xưng (*)</t>
+  </si>
+  <si>
+    <t>Tên đầy đủ (*)</t>
+  </si>
+  <si>
+    <t>Báo tới tới</t>
+  </si>
+  <si>
+    <t>Tiểu sử</t>
+  </si>
+  <si>
+    <t>Chức danh</t>
+  </si>
+  <si>
+    <t>- Mã nhân viên hỗ trợ
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Mã danh xưng tại #saledata.salutation
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Tên đầy đủ của người đại diện
+- Ví dụ: Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>- Chức danh của người đại diện
+- Ví dụ: Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Cấp cha của liên hệ này chính trang tính này
+Ví dụ: LH0001</t>
+  </si>
+  <si>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>- Mã tài khoản liên kết với liên hệ này tại #saledata.accounts
+- Ví dụ: ACC0001</t>
+  </si>
+  <si>
+    <t>EMP0001</t>
+  </si>
+  <si>
+    <t>Giám Đốc</t>
+  </si>
+  <si>
+    <t>LH0001</t>
+  </si>
+  <si>
+    <t>0972403708</t>
+  </si>
+  <si>
+    <t>anv@example.com</t>
+  </si>
+  <si>
+    <t>AC0001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>Di động (duy nhất)</t>
+  </si>
+  <si>
+    <t>Thư điện tử (duy nhất)</t>
+  </si>
+  <si>
+    <t>- Là duy nhất
+- Số di động của người đại diện
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Là duy nhất
+- Thư điện tử của người đại diện
+- Ví dụ: anv@example.com</t>
+  </si>
+  <si>
+    <t>Đây là điều khoản thanh toán cho việc bán hàng với các mốc thanh toán ký hợp đồng - giao hàng - xuất hoá đơn với giá trị thanh toán theo phần trăm 30-30-40.</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 100
+- Mã của tài khoản
+- Ví dụ: CTY_MTS</t>
+  </si>
+  <si>
+    <t>Tiêu đề (*)</t>
+  </si>
+  <si>
+    <t>- Băt buộc
+- Độ dài tối đa: 150
+- Tên của tài khoản
+- Ví dụ: Công Ty TNHH Minh Tâm Solution</t>
+  </si>
+  <si>
+    <t>Loại tài khoản (*)</t>
+  </si>
+  <si>
+    <t>Nhóm tài khoản (*)</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Danh sách mã liên kết với nhau bằng dấu phẩy.
+- Mã loại tài khoản tại #saledata.account.type
+- Ví dụ: AT001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã nhóm tài khoản tại #saledata.account.group
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>Lĩnh vực (*)</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã lĩnh vực tại #saledata.industry
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>Người quản lý (*)</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Danh sách mã liên kết với nhau bằng dấu phẩy.
+- Mã người quản lý tại #hr.employees
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Số di động</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa: 25
+- Số di động liên hệ
+- Là số điện thoại ở VN
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa: 150
+- Đường dẫn đến website của khách hàng
+- Ví dụ: https://www.bflow.vn</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa 150
+- Ví dụ: 0317493763</t>
+  </si>
+  <si>
+    <t>Doanh thu hằng năm</t>
+  </si>
+  <si>
+    <t>- Lựa chọn trong các lựa chọn sau:
++ 1: 1 đến 10 tỷ
++ 2: 10 đến 20 tỷ
++ 3: 20 đến 50 tỷ
++ 4: 50 đến 200 tỷ
++ 5: 200 đến 1000 tỷ
++ 6: lớn hơn 1000 tỷ
+- Ví dụ: 2</t>
+  </si>
+  <si>
+    <t>CTY_MTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Công Ty TNHH Minh Tâm Solution</t>
+  </si>
+  <si>
+    <t>https://www.bflow.vn</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>0317493763</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa 150
+- Địa chỉ thư điện tử 
+- Ví dụ: support@bflow.vn</t>
+  </si>
+  <si>
+    <t>support@bflow.vn</t>
+  </si>
+  <si>
+    <t>Tổng số nhân viên</t>
+  </si>
+  <si>
+    <t>- Lựa chọn trong các lựa chọn sau:
++ 1 (&lt; 20 người)
++ 2 (20 đến 50 người)
++ 3 (50 đến 200 người)
++ 4 (200 đến 500 người)
++ 5 (&gt; 500 người)
+- Ví dụ: 2</t>
+  </si>
+  <si>
+    <t>Thành phần cha</t>
+  </si>
+  <si>
+    <t>- Mã của thành phần cha tại trang tính này
+- Ví dụ: CTY_MTS</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>EMP0001,EMP0002,EMP0003</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>- Mã liên hệ tại #saledata.contact
+- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
+[Mã liên hê, Là mặc định]
+- Mã liên hệ tại #saledata.contact
+- Là mặc định: 0 là sai, 1 là đúng
+- Lưu ý mã liên hệ nên đặt bên trong dấu nháy đuôi.
+- Ví dụ: [["001", 1], ["002", 0]]</t>
+  </si>
+  <si>
+    <t>[["001", 1],["002", 0]]</t>
+  </si>
+  <si>
+    <t>- Định dạng ngày-tháng-năm (DD-MM-YYYY)
+- Ví dụ: 31-01-1970</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,6 +1033,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -683,6 +1142,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1056,28 +1524,1313 @@
     </row>
     <row r="2" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="D2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863D4F3-258D-41FD-90A7-5BEE0F94C0B4}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="19.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="C2" s="9" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>63</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{7B04A94F-FAB7-487F-8C92-25C376949F35}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45619C8-AAF7-43DE-831A-2BED068D71D3}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="9" customWidth="1"/>
+    <col min="9" max="10" width="23.21875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>65</v>
+        <v>144</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{A7F80CA7-55FF-4114-ABC4-D566F639A9D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA7C1B-B0F0-4AC8-A907-82185EA45827}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="65" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A0AB4-CD70-4743-A933-50E4AFBD716C}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="23.109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="37" style="9" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="23.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="9" customWidth="1"/>
+    <col min="8" max="14" width="23.109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="37.44140625" style="9" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{DFD74E29-D273-4805-B496-72D456495F15}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{913AF339-92F9-4A30-AF6D-F6F7851D4855}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{FB385679-6EAF-4646-884A-0E1F6A1405D6}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{201E1320-C7A6-460A-A532-DA3CD3CEFF4D}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{03C0343A-487B-4774-B7D2-B39772EADD0A}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{941D56E1-E801-47ED-9A22-DDE59A567A7B}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{73AB2EBC-7F01-485B-82F5-DE4EB358507B}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{05579D94-AE7B-450B-B1B3-BF0E4C5D83AC}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{AC67AA11-A167-4FC4-9B86-5610129AE4FA}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{1C817A0D-7D06-4BF0-849F-C18858065C79}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{4F882C98-A634-4820-8120-E6319CF16CB9}"/>
+    <hyperlink ref="H14" r:id="rId12" xr:uid="{19074FCD-10BB-4A5E-B322-BCEABE884FB5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" location="'Instructions - Chỉ dẫn'!A26" display="Mô tả tên trang tính" xr:uid="{4E5C23A0-A79B-4E2E-B3C3-97237D68867F}"/>
+    <hyperlink ref="A2" location="'Instructions - Chỉ dẫn'!A16" display="Mô tả yêu cầu dữ liệu" xr:uid="{5511E882-0789-4D6F-AEAA-34360E5BE74D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1115,16 +2868,16 @@
     </row>
     <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +2890,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,48 +2934,48 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1253,33 +3006,33 @@
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="D1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +3045,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1322,63 +3075,63 @@
         <v>8</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="I2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1387,307 +3140,276 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
-  <dimension ref="A1:E38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0006E928-76FF-46D6-8C3B-F76222261BB1}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="27" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709BFA93-CCDF-43DC-B3BF-04DACD72B0E2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="27" style="9" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" location="'Instructions - Chỉ dẫn'!A26" display="Mô tả tên trang tính" xr:uid="{4E5C23A0-A79B-4E2E-B3C3-97237D68867F}"/>
-    <hyperlink ref="A2" location="'Instructions - Chỉ dẫn'!A16" display="Mô tả yêu cầu dữ liệu" xr:uid="{5511E882-0789-4D6F-AEAA-34360E5BE74D}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359912D-CDDC-4C74-BCFB-CBE40EB489F2}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="27" style="9" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBC7503-D39D-4D5C-B33A-E4C15DD2E38F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="27" style="9" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EC948-FDD0-48A6-B1DD-A04D168B3A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBB119-1C27-41D8-A9EE-7954E538AF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="5" activeTab="12" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="803" firstSheet="7" activeTab="13" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
   <si>
     <t>E-Mail</t>
   </si>
@@ -553,18 +553,6 @@
 - Ví dụ: Bà</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>Bà</t>
-  </si>
-  <si>
     <t>Tỉ lệ (*)</t>
   </si>
   <si>
@@ -585,18 +573,6 @@
 - Ví dụ: VND</t>
   </si>
   <si>
-    <t>VND</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>Đại Lý Cấp 5</t>
-  </si>
-  <si>
-    <t>Đại lý cấp 005</t>
-  </si>
-  <si>
     <t>- Bắt buộc, định danh
 - Độ dài tối đa: 100
 - Ví dụ: AT001</t>
@@ -610,21 +586,6 @@
 - Ví dụ: Khách hàng</t>
   </si>
   <si>
-    <t>AT001</t>
-  </si>
-  <si>
-    <t>Khách hàng</t>
-  </si>
-  <si>
-    <t>Đây là loại khách hàng</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>AT002</t>
-  </si>
-  <si>
     <t>- Tên của ngành
 - Ví dụ: Dịch vụ</t>
   </si>
@@ -632,21 +593,6 @@
     <t>- Bắt buộc, định danh
 - Độ dài tối đa: 100
 - Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>Dịch vụ</t>
-  </si>
-  <si>
-    <t>Đây là loại dịch vụ</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>Bán lẻ</t>
-  </si>
-  <si>
-    <t>Đây là loại bán lẻ</t>
   </si>
   <si>
     <t>- Tên của chính sách
@@ -709,15 +655,6 @@
     </r>
   </si>
   <si>
-    <t>Thanh toán 30-30-40</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>[[0, 30, 1, 1, 1], [0, 30, 1, 1, 2], [0, 40, 1, 1, 3]]</t>
-  </si>
-  <si>
     <t>Người có thông tin liên hệ (*)</t>
   </si>
   <si>
@@ -761,27 +698,6 @@
   <si>
     <t>- Mã tài khoản liên kết với liên hệ này tại #saledata.accounts
 - Ví dụ: ACC0001</t>
-  </si>
-  <si>
-    <t>EMP0001</t>
-  </si>
-  <si>
-    <t>Giám Đốc</t>
-  </si>
-  <si>
-    <t>LH0001</t>
-  </si>
-  <si>
-    <t>0972403708</t>
-  </si>
-  <si>
-    <t>anv@example.com</t>
-  </si>
-  <si>
-    <t>AC0001</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
   </si>
   <si>
     <t>Di động (duy nhất)</t>
@@ -798,9 +714,6 @@
     <t>- Là duy nhất
 - Thư điện tử của người đại diện
 - Ví dụ: anv@example.com</t>
-  </si>
-  <si>
-    <t>Đây là điều khoản thanh toán cho việc bán hàng với các mốc thanh toán ký hợp đồng - giao hàng - xuất hoá đơn với giá trị thanh toán theo phần trăm 30-30-40.</t>
   </si>
   <si>
     <t>- Bắt buộc, định danh
@@ -889,30 +802,12 @@
 - Ví dụ: 2</t>
   </si>
   <si>
-    <t>CTY_MTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Công Ty TNHH Minh Tâm Solution</t>
-  </si>
-  <si>
-    <t>https://www.bflow.vn</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>0317493763</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>- Độ dài tối đa 150
 - Địa chỉ thư điện tử 
 - Ví dụ: support@bflow.vn</t>
-  </si>
-  <si>
-    <t>support@bflow.vn</t>
   </si>
   <si>
     <t>Tổng số nhân viên</t>
@@ -934,39 +829,6 @@
 - Ví dụ: CTY_MTS</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>EMP0001,EMP0002,EMP0003</t>
-  </si>
-  <si>
     <t>Liên hệ</t>
   </si>
   <si>
@@ -979,18 +841,18 @@
 - Ví dụ: [["001", 1], ["002", 0]]</t>
   </si>
   <si>
-    <t>[["001", 1],["002", 0]]</t>
-  </si>
-  <si>
     <t>- Định dạng ngày-tháng-năm (DD-MM-YYYY)
 - Ví dụ: 31-01-1970</t>
+  </si>
+  <si>
+    <t>Luôn giữ kiểu của ô là text để trình đọc dữ liệu có thể hiểu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,8 +905,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,6 +930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,8 +990,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1146,9 +1026,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1166,6 +1043,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1485,63 +1371,63 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="9" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="7" customWidth="1"/>
+    <col min="4" max="5" width="15.88671875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="22" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1552,78 +1438,58 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863D4F3-258D-41FD-90A7-5BEE0F94C0B4}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="19.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="26" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="19.77734375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="48.33203125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>158</v>
+      <c r="B2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1638,191 +1504,142 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45619C8-AAF7-43DE-831A-2BED068D71D3}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="9" customWidth="1"/>
-    <col min="9" max="10" width="23.21875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="10.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="7" customWidth="1"/>
+    <col min="9" max="10" width="23.21875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>138</v>
+      <c r="C1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>152</v>
+      <c r="C2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{A7F80CA7-55FF-4114-ABC4-D566F639A9D2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA7C1B-B0F0-4AC8-A907-82185EA45827}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="65" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="11.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="65" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1832,699 +1649,121 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A0AB4-CD70-4743-A933-50E4AFBD716C}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="23.109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="37" style="9" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="23.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" style="9" customWidth="1"/>
-    <col min="8" max="14" width="23.109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="37.44140625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="23.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37" style="7" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="23.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="7" customWidth="1"/>
+    <col min="8" max="14" width="23.109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="37.44140625" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>201</v>
+      <c r="C1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>203</v>
+      <c r="B2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{DFD74E29-D273-4805-B496-72D456495F15}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{913AF339-92F9-4A30-AF6D-F6F7851D4855}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{FB385679-6EAF-4646-884A-0E1F6A1405D6}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{201E1320-C7A6-460A-A532-DA3CD3CEFF4D}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{03C0343A-487B-4774-B7D2-B39772EADD0A}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{941D56E1-E801-47ED-9A22-DDE59A567A7B}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{73AB2EBC-7F01-485B-82F5-DE4EB358507B}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{05579D94-AE7B-450B-B1B3-BF0E4C5D83AC}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{AC67AA11-A167-4FC4-9B86-5610129AE4FA}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{1C817A0D-7D06-4BF0-849F-C18858065C79}"/>
-    <hyperlink ref="H13" r:id="rId11" xr:uid="{4F882C98-A634-4820-8120-E6319CF16CB9}"/>
-    <hyperlink ref="H14" r:id="rId12" xr:uid="{19074FCD-10BB-4A5E-B322-BCEABE884FB5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2533,132 +1772,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="24.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.88671875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22"/>
@@ -2673,152 +1918,153 @@
       <c r="A25"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="B17:D17"/>
@@ -2840,43 +2086,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="48.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="48.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="40" style="7" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2890,91 +2136,91 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="19.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.6640625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18" style="9" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2988,50 +2234,50 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="10.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3045,92 +2291,92 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="10.21875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3141,61 +2387,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0006E928-76FF-46D6-8C3B-F76222261BB1}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="27" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="27" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3205,58 +2437,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709BFA93-CCDF-43DC-B3BF-04DACD72B0E2}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="27" style="9" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="27" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>110</v>
+      <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3266,72 +2484,44 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359912D-CDDC-4C74-BCFB-CBE40EB489F2}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="27" style="9" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="27" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>116</v>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3341,72 +2531,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBC7503-D39D-4D5C-B33A-E4C15DD2E38F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="27" style="9" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="27" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>125</v>
+      <c r="B2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CBB119-1C27-41D8-A9EE-7954E538AF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D409DE9-B636-4ACE-8CA5-3FBC9E7B03A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="803" firstSheet="7" activeTab="13" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="2" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -344,18 +344,6 @@
     <t>- Mã của vai trò tại #hr.roles
 - Danh sách mã vai trò liên kết với nhau bằng dấu phẩy.
 - Ví dụ: QL</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Độ dài tối đa: 100
-- Tên của nhân viên
-- Ví dụ: Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Độ dài tối đa: 100
-- Họ của nhân viên
-- Ví dụ: A</t>
   </si>
   <si>
     <t>- Bắt buộc
@@ -846,6 +834,18 @@
   </si>
   <si>
     <t>Luôn giữ kiểu của ô là text để trình đọc dữ liệu có thể hiểu</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Tên của nhân viên
+- Ví dụ: A</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Họ của nhân viên
+- Ví dụ: Nguyễn Văn</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1029,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1043,15 +1052,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1466,10 +1466,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>19</v>
@@ -1480,16 +1480,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1533,31 +1533,31 @@
         <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1565,31 +1565,31 @@
         <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1633,13 +1633,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1676,43 +1676,43 @@
         <v>10</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>141</v>
-      </c>
       <c r="I1" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,46 +1720,46 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="H2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1823,13 +1823,13 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="A11" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -1844,65 +1844,65 @@
       <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,13 +1918,13 @@
       <c r="A25"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
@@ -1940,7 +1940,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1972,7 +1972,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2135,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2B7B4-0119-40B2-9AE3-A031B16A0EEC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,37 +2155,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2194,28 +2194,28 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>66</v>
@@ -2410,10 +2410,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -2421,13 +2421,13 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2471,10 +2471,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2518,10 +2518,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2565,10 +2565,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D409DE9-B636-4ACE-8CA5-3FBC9E7B03A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4D409DE9-B636-4ACE-8CA5-3FBC9E7B03A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3340E157-6AAA-46F8-8BCE-3FD41B242304}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" activeTab="2" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="2" activeTab="12" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,46 @@
     <sheet name="#saledata.account" sheetId="15" r:id="rId13"/>
     <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập (*, định danh)</t>
+  </si>
+  <si>
+    <t>Họ (*)</t>
+  </si>
+  <si>
+    <t>Tên (*)</t>
+  </si>
+  <si>
+    <t>Mật khẩu (*)</t>
+  </si>
   <si>
     <t>E-Mail</t>
   </si>
@@ -46,181 +75,7 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Họ (*)</t>
-  </si>
-  <si>
-    <t>Tên (*)</t>
-  </si>
-  <si>
-    <t>Mật khẩu (*)</t>
-  </si>
-  <si>
-    <t>Tên đăng nhập (*, định danh)</t>
-  </si>
-  <si>
-    <t>Tên viết tắt  (*, định danh)</t>
-  </si>
-  <si>
-    <t>Tên vai trò (*)</t>
-  </si>
-  <si>
-    <t>Thành viên</t>
-  </si>
-  <si>
-    <t>Mã (*, định danh)</t>
-  </si>
-  <si>
-    <t>Email (*)</t>
-  </si>
-  <si>
-    <t>SĐT (*)</t>
-  </si>
-  <si>
-    <t>Người dùng</t>
-  </si>
-  <si>
-    <t>Ngày tham gia</t>
-  </si>
-  <si>
-    <t>Phòng ban</t>
-  </si>
-  <si>
-    <t>Vai trò</t>
-  </si>
-  <si>
-    <t>Phân cấp (*)</t>
-  </si>
-  <si>
-    <t>Mã lớp cha</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Phân cấp (*, định danh)</t>
-  </si>
-  <si>
-    <t>Mô tả (*)</t>
-  </si>
-  <si>
-    <t>#account.users</t>
-  </si>
-  <si>
-    <t>Tên sheet</t>
-  </si>
-  <si>
-    <t>Tên tính năng tiếng Anh</t>
-  </si>
-  <si>
-    <t>Tên tính năng tiếng Việt</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Mô tả thêm</t>
-  </si>
-  <si>
-    <t>Người dùng đăng nhập vào hệ thống</t>
-  </si>
-  <si>
-    <t>#hr.roles</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Vai trò của nhóm người dùng trong tổ chức (có cùng quyền hạn)</t>
-  </si>
-  <si>
-    <t>#hr.groups.level</t>
-  </si>
-  <si>
-    <t>Group Level</t>
-  </si>
-  <si>
-    <t>Cấp bậc nhóm</t>
-  </si>
-  <si>
-    <t>#hr.groups</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Nhóm</t>
-  </si>
-  <si>
-    <t>Các nhóm trong tổ chức - còn được gọi là phòng ban</t>
-  </si>
-  <si>
-    <t>Cấp bậc của các nhóm - còn được gọi là cấp bậc của phòng ban</t>
-  </si>
-  <si>
-    <t>#hr.employees</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>Nhân viên của công ty. Nếu nhân viên cho quyền đăng nhập vào hệ thống thì cung cấp #account.users và liên kết chúng với nhân viên.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phụ lục </t>
-  </si>
-  <si>
-    <t>Dữ liệu import</t>
-  </si>
-  <si>
-    <t>Ký hiệu</t>
-  </si>
-  <si>
-    <t>Bắt buộc</t>
-  </si>
-  <si>
-    <t>(*)</t>
-  </si>
-  <si>
-    <t>(*, định danh)</t>
-  </si>
-  <si>
-    <t>Bắt buộc và sử dụng dữ liệu này để định danh cho dòng dữ liệu này - sử dụng mã này ở các bảng liên kết tới nó</t>
-  </si>
-  <si>
-    <t>Là số thứ tự cho dòng dữ liệu. Sử dụng để xác định các dữ liệu đã được import,… luôn giữ cho chúng tăng dần để việc quản trị dữ liệu import của bạn dễ dàng hơn</t>
-  </si>
-  <si>
-    <t>Mô tả yêu cầu dữ liệu</t>
-  </si>
-  <si>
-    <t>Mô tả tên trang tính của từng tính năng</t>
-  </si>
-  <si>
-    <t>Mô tả tên trang tính</t>
-  </si>
-  <si>
     <t>Số thứ tự</t>
-  </si>
-  <si>
-    <t>- Thành viên của phòng ban
-- Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees. 
-- Ví dụ: EMP0001,EMP0002</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang
-- Ví dụ: BGD</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Tên đại diện cho vai trò
-- Ví dụ: Ban Giám Đốc</t>
   </si>
   <si>
     <t>- Bắt buộc, định danh
@@ -253,97 +108,77 @@
 - Ví dụ: 0987654321</t>
   </si>
   <si>
-    <t>- Mã người dùng tại #account.users 
-- Người dùng liên kết với nhân viên
-- Ví dụ: anv</t>
-  </si>
-  <si>
-    <t>- Mã của phòng ban tại #hr.groups
-- Phòng ban mà nhân viên thuộc về
-- Ví dụ: QLDH</t>
+    <t>Tên viết tắt  (*, định danh)</t>
+  </si>
+  <si>
+    <t>Tên vai trò (*)</t>
+  </si>
+  <si>
+    <t>Thành viên</t>
   </si>
   <si>
     <t>- Bắt buộc, định danh
-- Một số định danh của phân cấp nhóm
-- Ví dụ: 1</t>
+- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang
+- Ví dụ: BGD</t>
   </si>
   <si>
     <t>- Bắt buộc
-- Mô tả phân cấp nhóm
-- Ví dụ: Phân cấp thể hiện nhóm có vai trò lãnh đạo doanh nghiệp</t>
-  </si>
-  <si>
-    <t>- Mô tả cho trưởng quản lý của cấp nhóm
-- Ví dụ: Tổng Giám Đốc</t>
-  </si>
-  <si>
-    <t>- Mô tả cho phó quản lý cấp nhóm
-- Ví dụ: Phó Giám Đốc</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Mã của nhóm (còn được gọi là phòng ban)
-- Bao gồm chữ cái, số, gạch ngang, gạch dưới.
-Ví dụ: QLDH</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Tên của nhóm 
-- Ví dụ: Quản Lý Điều Hành</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Mã định danh của phân cấp nhóm tại #hr.groups.level
-- Ví dụ: 1</t>
-  </si>
-  <si>
-    <t>- Mã định danh của nhóm mà phân bổ cấp trên/lớp trên cho nhóm này tại #hr.groups
-- Vui lòng đặt dòng không có lớp cha ở trên để đảm bảo nó được tạo trước khi được tại các con.
-- Ví dụ: QLDH</t>
-  </si>
-  <si>
-    <t>- Mô tả của nhóm này</t>
-  </si>
-  <si>
-    <t>- Mã nhân viên của trưởng quản lý nhóm
-- Ví dụ: EMP0001</t>
-  </si>
-  <si>
-    <t>Quản lý trưởng</t>
-  </si>
-  <si>
-    <t>Tiêu đề quản lý trưởng</t>
-  </si>
-  <si>
-    <t>Quản lý phó</t>
-  </si>
-  <si>
-    <t>Tiêu đề quản lý phó</t>
-  </si>
-  <si>
-    <t>- Tiêu đề của quản lý trưởng
-- Ví dụ: Tổng Giám Đốc</t>
-  </si>
-  <si>
-    <t>- Mô tả của quản lý phó
-- Ví dụ: Phó Giám Đốc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mô tả quản lý trưởng </t>
-  </si>
-  <si>
-    <t>Mô tả quản lý phó</t>
+- Tên đại diện cho vai trò
+- Ví dụ: Ban Giám Đốc</t>
   </si>
   <si>
     <t>- Thành viên của phòng ban
 - Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees. 
-- Nhân viên liên kết sẽ tự động cập nhật thành nhóm này
 - Ví dụ: EMP0001,EMP0002</t>
   </si>
   <si>
-    <t>- Mã của vai trò tại #hr.roles
-- Danh sách mã vai trò liên kết với nhau bằng dấu phẩy.
-- Ví dụ: QL</t>
+    <t>Mã (*, định danh)</t>
+  </si>
+  <si>
+    <t>Email (*)</t>
+  </si>
+  <si>
+    <t>SĐT (*)</t>
+  </si>
+  <si>
+    <t>Người dùng</t>
+  </si>
+  <si>
+    <t>Ngày tham gia</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Phòng ban</t>
+  </si>
+  <si>
+    <t>Vai trò</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 150
+- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang.
+- Mã định danh cho nhân viên
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Tên của nhân viên
+- Ví dụ: A</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Họ của nhân viên
+- Ví dụ: Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 150
+- Địa chỉ thư điện tử của nhân viên
+- Ví dụ: anv@example.com</t>
   </si>
   <si>
     <t>- Bắt buộc
@@ -353,20 +188,502 @@
 - Ví dụ: 0987654321</t>
   </si>
   <si>
+    <t>- Mã người dùng tại #account.users 
+- Người dùng liên kết với nhân viên
+- Ví dụ: anv</t>
+  </si>
+  <si>
+    <t>- Định dạng ngày-tháng-năm (DD-MM-YYYY)
+- Ví dụ: 31-01-1970</t>
+  </si>
+  <si>
+    <t>- Mã của phòng ban tại #hr.groups
+- Phòng ban mà nhân viên thuộc về
+- Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Mã của vai trò tại #hr.roles
+- Danh sách mã vai trò liên kết với nhau bằng dấu phẩy.
+- Ví dụ: QL</t>
+  </si>
+  <si>
+    <t>Phân cấp (*, định danh)</t>
+  </si>
+  <si>
+    <t>Mô tả (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mô tả quản lý trưởng </t>
+  </si>
+  <si>
+    <t>Mô tả quản lý phó</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Một số định danh của phân cấp nhóm
+- Ví dụ: 1</t>
+  </si>
+  <si>
     <t>- Bắt buộc
+- Mô tả phân cấp nhóm
+- Ví dụ: Phân cấp thể hiện nhóm có vai trò lãnh đạo doanh nghiệp</t>
+  </si>
+  <si>
+    <t>- Mô tả cho trưởng quản lý của cấp nhóm
+- Ví dụ: Tổng Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Mô tả cho phó quản lý cấp nhóm
+- Ví dụ: Phó Giám Đốc</t>
+  </si>
+  <si>
+    <t>Phân cấp (*)</t>
+  </si>
+  <si>
+    <t>Mã lớp cha</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Quản lý trưởng</t>
+  </si>
+  <si>
+    <t>Tiêu đề quản lý trưởng</t>
+  </si>
+  <si>
+    <t>Quản lý phó</t>
+  </si>
+  <si>
+    <t>Tiêu đề quản lý phó</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Mã của nhóm (còn được gọi là phòng ban)
+- Bao gồm chữ cái, số, gạch ngang, gạch dưới.
+Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Tên của nhóm 
+- Ví dụ: Quản Lý Điều Hành</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã định danh của phân cấp nhóm tại #hr.groups.level
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Mã định danh của nhóm mà phân bổ cấp trên/lớp trên cho nhóm này tại #hr.groups
+- Vui lòng đặt dòng không có lớp cha ở trên để đảm bảo nó được tạo trước khi được tại các con.
+- Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Mô tả của nhóm này</t>
+  </si>
+  <si>
+    <t>- Thành viên của phòng ban
+- Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees. 
+- Nhân viên liên kết sẽ tự động cập nhật thành nhóm này
+- Ví dụ: EMP0001,EMP0002</t>
+  </si>
+  <si>
+    <t>- Mã nhân viên của trưởng quản lý nhóm
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Tiêu đề của quản lý trưởng
+- Ví dụ: Tổng Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Mô tả của quản lý phó
+- Ví dụ: Phó Giám Đốc</t>
+  </si>
+  <si>
+    <t>Tỉ lệ (*)</t>
+  </si>
+  <si>
+    <t>Mã tiền tệ của hệ thống</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: VND</t>
+  </si>
+  <si>
+    <t>- Tỉ lệ của tiền tệ này so với tiền tệ mặc định
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa: 10
+- Là mã so khớp với mã tiền tệ của hệ thống. Giúp việc đồng bộ giá thực tế từ VCB về tỉ lệ tiền tệ.
+- Ví dụ: VND</t>
+  </si>
+  <si>
+    <t>- Tên của nhóm tài khoản
+- Ví dụ: Đại Lý</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: AT001</t>
+  </si>
+  <si>
+    <t>- Tên của loại tài khoản
+- Ví dụ: Khách hàng</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Tên của ngành
+- Ví dụ: Dịch vụ</t>
+  </si>
+  <si>
+    <t>Đối tượng áp dụng (*)</t>
+  </si>
+  <si>
+    <t>Chính sách (*)</t>
+  </si>
+  <si>
+    <t>- Tên của chính sách
+- Ví dụ: Thanh Toán 30-30-40</t>
+  </si>
+  <si>
+    <t>- Đối tượng áp dụng cho chính sách này.
+- Lựa chọn 1 trong các lựa chọn sau:
+0: Bán hàng
+1: Mua hàng
+- Ví dụ: 0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**Mở rộng dòng này để đọc đầy đủ mô tả**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Cấu hình các điều khoản chính sách
+- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
+[Loại, Giá trị, Kiểu ngày, Số ngày, Kích hoạt khi]
+- Loại: Đơn vị để tính cho phần giá trị
+0: Phần trăm
+1: Số lượng
+2: Cân bằng
+- Giá trị: Dữ liệu số thực theo đơn vị tính của loại
+- Kiểu ngày: Kiểu ngày để tính chính xác cho phần số lượng ngày
+1: Ngày làm việc
+2: Ngày dương lịch
+- Số ngày: Dữ liệu số nguyên về số ngày cho công thức, sẽ tuân thủ bộ đếm ngày của "Kiểu ngày"
+- Kích hoạt khi: Là mốc thời gian mà sự kiện sẽ được kích hoạt
+1: Ngày ký hợp đồng
+2: Ngày giao hàng
+3: Ngày xuất hoá đơn
+4: Ngày thông qua 
+5: Kết thúc tháng hoá đơn
+6: Ngày đặt hàng
+- Ví dụ: [[0, 30, 1, 1, 1], [0, 30, 1, 1, 2], [0, 40, 1, 1, 3]] : Cấu hình này là chính sách thanh toán theo phần trăm với mốc 30 - 30 - 40 cho sự kiện ký hợp đồng - giao hàng - xuất hoá đơn và ngày chậm nhất thanh toán là 1 ngày làm việc sau sự kiện kích hoạt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Người có thông tin liên hệ (*)</t>
+  </si>
+  <si>
+    <t>Danh xưng (*)</t>
+  </si>
+  <si>
+    <t>Tên đầy đủ (*)</t>
+  </si>
+  <si>
+    <t>Chức danh</t>
+  </si>
+  <si>
+    <t>Báo tới tới</t>
+  </si>
+  <si>
+    <t>Di động (duy nhất)</t>
+  </si>
+  <si>
+    <t>Thư điện tử (duy nhất)</t>
+  </si>
+  <si>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Tiểu sử</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 100
+- Mã của danh xưng
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Mã nhân viên hỗ trợ
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Mã danh xưng tại #saledata.salutation
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Tên đầy đủ của người đại diện
+- Ví dụ: Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>- Chức danh của người đại diện
+- Ví dụ: Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Cấp cha của liên hệ này chính trang tính này
+Ví dụ: LH0001</t>
+  </si>
+  <si>
+    <t>- Là duy nhất
+- Số di động của người đại diện
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Là duy nhất
+- Thư điện tử của người đại diện
+- Ví dụ: anv@example.com</t>
+  </si>
+  <si>
+    <t>- Mã tài khoản liên kết với liên hệ này tại #saledata.accounts
+- Ví dụ: ACC0001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Độ dài tối đa: 100
+- Tên của danh xưng
+- Ví dụ: Mrs</t>
+  </si>
+  <si>
+    <t>- Mô tả của danh xưng
+- Ví dụ: Bà</t>
+  </si>
+  <si>
+    <t>Tiêu đề (*)</t>
+  </si>
+  <si>
+    <t>Loại tài khoản (*)</t>
+  </si>
+  <si>
+    <t>Cá nhân/ Tổ chức (*)</t>
+  </si>
+  <si>
+    <t>Nhóm tài khoản (*)</t>
+  </si>
+  <si>
+    <t>Lĩnh vực (*)</t>
+  </si>
+  <si>
+    <t>Người quản lý (*)</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Số di động</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Doanh thu hằng năm</t>
+  </si>
+  <si>
+    <t>Tổng số nhân viên</t>
+  </si>
+  <si>
+    <t>Thành phần cha</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 100
+- Mã của tài khoản
+- Ví dụ: CTY_MTS</t>
+  </si>
+  <si>
+    <t>- Băt buộc
 - Độ dài tối đa: 150
-- Địa chỉ thư điện tử của nhân viên
-- Ví dụ: anv@example.com</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa 150
-- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang.
-- Mã định danh cho nhân viên
+- Tên của tài khoản
+- Ví dụ: Công Ty TNHH Minh Tâm Solution</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Danh sách mã liên kết với nhau bằng dấu phẩy.
+- Mã loại tài khoản tại #saledata.account.type
+- Ví dụ: AT001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Lựa chọn trong các lựa chọn sau:
++ 0: Cá nhân
++ 1: Tổ chức (mặc định)
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã nhóm tài khoản tại #saledata.account.group
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã lĩnh vực tại #saledata.industry
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Danh sách mã liên kết với nhau bằng dấu phẩy.
+- Mã người quản lý tại #hr.employees
 - Ví dụ: EMP0001</t>
   </si>
   <si>
+    <t>- Độ dài tối đa: 150
+- Đường dẫn đến website của khách hàng
+- Ví dụ: https://www.bflow.vn</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa: 25
+- Số di động liên hệ
+- Là số điện thoại ở VN
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa 150
+- Địa chỉ thư điện tử 
+- Ví dụ: support@bflow.vn</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa 150
+- Ví dụ: 0317493763</t>
+  </si>
+  <si>
+    <t>- Lựa chọn trong các lựa chọn sau:
++ 1: 1 đến 10 tỷ
++ 2: 10 đến 20 tỷ
++ 3: 20 đến 50 tỷ
++ 4: 50 đến 200 tỷ
++ 5: 200 đến 1000 tỷ
++ 6: lớn hơn 1000 tỷ
+- Ví dụ: 2</t>
+  </si>
+  <si>
+    <t>- Lựa chọn trong các lựa chọn sau:
++ 1 (&lt; 20 người)
++ 2 (20 đến 50 người)
++ 3 (50 đến 200 người)
++ 4 (200 đến 500 người)
++ 5 (&gt; 500 người)
+- Ví dụ: 2</t>
+  </si>
+  <si>
+    <t>- Mã của thành phần cha tại trang tính này
+- Ví dụ: CTY_MTS</t>
+  </si>
+  <si>
+    <t>- Mã liên hệ tại #saledata.contact
+- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
+[Mã liên hê, Là mặc định]
+- Mã liên hệ tại #saledata.contact
+- Là mặc định: 0 là sai, 1 là đúng
+- Lưu ý mã liên hệ nên đặt bên trong dấu nháy đuôi.
+- Ví dụ: [["001", 1], ["002", 0]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phụ lục </t>
+  </si>
+  <si>
+    <t>Mô tả yêu cầu dữ liệu</t>
+  </si>
+  <si>
+    <t>Mô tả tên trang tính</t>
+  </si>
+  <si>
+    <t>Luôn giữ kiểu của ô là text để trình đọc dữ liệu có thể hiểu</t>
+  </si>
+  <si>
+    <t>Dữ liệu import</t>
+  </si>
+  <si>
+    <t>Ký hiệu</t>
+  </si>
+  <si>
     <t>Lưu ý</t>
+  </si>
+  <si>
+    <t>(*)</t>
+  </si>
+  <si>
+    <t>Bắt buộc</t>
+  </si>
+  <si>
+    <t>(*, định danh)</t>
+  </si>
+  <si>
+    <t>Bắt buộc và sử dụng dữ liệu này để định danh cho dòng dữ liệu này - sử dụng mã này ở các bảng liên kết tới nó</t>
+  </si>
+  <si>
+    <t>Là số thứ tự cho dòng dữ liệu. Sử dụng để xác định các dữ liệu đã được import,… luôn giữ cho chúng tăng dần để việc quản trị dữ liệu import của bạn dễ dàng hơn</t>
+  </si>
+  <si>
+    <t>Mô tả tên trang tính của từng tính năng</t>
+  </si>
+  <si>
+    <t>Tên sheet</t>
+  </si>
+  <si>
+    <t>Tên tính năng tiếng Anh</t>
+  </si>
+  <si>
+    <t>Tên tính năng tiếng Việt</t>
+  </si>
+  <si>
+    <t>Mô tả thêm</t>
+  </si>
+  <si>
+    <t>#account.users</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>#hr.employees</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Nhân viên của công ty. Nếu nhân viên cho quyền đăng nhập vào hệ thống thì cung cấp #account.users và liên kết chúng với nhân viên.</t>
   </si>
   <si>
     <r>
@@ -522,337 +839,44 @@
     </r>
   </si>
   <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa 100
-- Mã của danh xưng
-- Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Độ dài tối đa: 100
-- Tên của danh xưng
-- Ví dụ: Mrs</t>
-  </si>
-  <si>
-    <t>- Mô tả của danh xưng
-- Ví dụ: Bà</t>
-  </si>
-  <si>
-    <t>Tỉ lệ (*)</t>
-  </si>
-  <si>
-    <t>Mã tiền tệ của hệ thống</t>
-  </si>
-  <si>
-    <t>- Tỉ lệ của tiền tệ này so với tiền tệ mặc định
-- Ví dụ: 1</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa: 100
-- Ví dụ: VND</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 10
-- Là mã so khớp với mã tiền tệ của hệ thống. Giúp việc đồng bộ giá thực tế từ VCB về tỉ lệ tiền tệ.
-- Ví dụ: VND</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa: 100
-- Ví dụ: AT001</t>
-  </si>
-  <si>
-    <t>- Tên của nhóm tài khoản
-- Ví dụ: Đại Lý</t>
-  </si>
-  <si>
-    <t>- Tên của loại tài khoản
-- Ví dụ: Khách hàng</t>
-  </si>
-  <si>
-    <t>- Tên của ngành
-- Ví dụ: Dịch vụ</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa: 100
-- Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>- Tên của chính sách
-- Ví dụ: Thanh Toán 30-30-40</t>
-  </si>
-  <si>
-    <t>Đối tượng áp dụng (*)</t>
-  </si>
-  <si>
-    <t>Chính sách (*)</t>
-  </si>
-  <si>
-    <t>- Đối tượng áp dụng cho chính sách này.
-- Lựa chọn 1 trong các lựa chọn sau:
-0: Bán hàng
-1: Mua hàng
-- Ví dụ: 0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**Mở rộng dòng này để đọc đầy đủ mô tả**</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Cấu hình các điều khoản chính sách
-- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
-[Loại, Giá trị, Kiểu ngày, Số ngày, Kích hoạt khi]
-- Loại: Đơn vị để tính cho phần giá trị
-0: Phần trăm
-1: Số lượng
-2: Cân bằng
-- Giá trị: Dữ liệu số thực theo đơn vị tính của loại
-- Kiểu ngày: Kiểu ngày để tính chính xác cho phần số lượng ngày
-1: Ngày làm việc
-2: Ngày dương lịch
-- Số ngày: Dữ liệu số nguyên về số ngày cho công thức, sẽ tuân thủ bộ đếm ngày của "Kiểu ngày"
-- Kích hoạt khi: Là mốc thời gian mà sự kiện sẽ được kích hoạt
-1: Ngày ký hợp đồng
-2: Ngày giao hàng
-3: Ngày xuất hoá đơn
-4: Ngày thông qua 
-5: Kết thúc tháng hoá đơn
-6: Ngày đặt hàng
-- Ví dụ: [[0, 30, 1, 1, 1], [0, 30, 1, 1, 2], [0, 40, 1, 1, 3]] : Cấu hình này là chính sách thanh toán theo phần trăm với mốc 30 - 30 - 40 cho sự kiện ký hợp đồng - giao hàng - xuất hoá đơn và ngày chậm nhất thanh toán là 1 ngày làm việc sau sự kiện kích hoạt.</t>
-    </r>
-  </si>
-  <si>
-    <t>Người có thông tin liên hệ (*)</t>
-  </si>
-  <si>
-    <t>Danh xưng (*)</t>
-  </si>
-  <si>
-    <t>Tên đầy đủ (*)</t>
-  </si>
-  <si>
-    <t>Báo tới tới</t>
-  </si>
-  <si>
-    <t>Tiểu sử</t>
-  </si>
-  <si>
-    <t>Chức danh</t>
-  </si>
-  <si>
-    <t>- Mã nhân viên hỗ trợ
-- Ví dụ: EMP0001</t>
-  </si>
-  <si>
-    <t>- Mã danh xưng tại #saledata.salutation
-- Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>- Tên đầy đủ của người đại diện
-- Ví dụ: Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>- Chức danh của người đại diện
-- Ví dụ: Giám Đốc</t>
-  </si>
-  <si>
-    <t>- Cấp cha của liên hệ này chính trang tính này
-Ví dụ: LH0001</t>
-  </si>
-  <si>
-    <t>Tài khoản</t>
-  </si>
-  <si>
-    <t>- Mã tài khoản liên kết với liên hệ này tại #saledata.accounts
-- Ví dụ: ACC0001</t>
-  </si>
-  <si>
-    <t>Di động (duy nhất)</t>
-  </si>
-  <si>
-    <t>Thư điện tử (duy nhất)</t>
-  </si>
-  <si>
-    <t>- Là duy nhất
-- Số di động của người đại diện
-- Ví dụ: 0987654321</t>
-  </si>
-  <si>
-    <t>- Là duy nhất
-- Thư điện tử của người đại diện
-- Ví dụ: anv@example.com</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa 100
-- Mã của tài khoản
-- Ví dụ: CTY_MTS</t>
-  </si>
-  <si>
-    <t>Tiêu đề (*)</t>
-  </si>
-  <si>
-    <t>- Băt buộc
-- Độ dài tối đa: 150
-- Tên của tài khoản
-- Ví dụ: Công Ty TNHH Minh Tâm Solution</t>
-  </si>
-  <si>
-    <t>Loại tài khoản (*)</t>
-  </si>
-  <si>
-    <t>Nhóm tài khoản (*)</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Danh sách mã liên kết với nhau bằng dấu phẩy.
-- Mã loại tài khoản tại #saledata.account.type
-- Ví dụ: AT001</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Mã nhóm tài khoản tại #saledata.account.group
-- Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>Lĩnh vực (*)</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Mã lĩnh vực tại #saledata.industry
-- Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>Người quản lý (*)</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Danh sách mã liên kết với nhau bằng dấu phẩy.
-- Mã người quản lý tại #hr.employees
-- Ví dụ: EMP0001</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Số di động</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 25
-- Số di động liên hệ
-- Là số điện thoại ở VN
-- Ví dụ: 0987654321</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 150
-- Đường dẫn đến website của khách hàng
-- Ví dụ: https://www.bflow.vn</t>
-  </si>
-  <si>
-    <t>Mã số thuế</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa 150
-- Ví dụ: 0317493763</t>
-  </si>
-  <si>
-    <t>Doanh thu hằng năm</t>
-  </si>
-  <si>
-    <t>- Lựa chọn trong các lựa chọn sau:
-+ 1: 1 đến 10 tỷ
-+ 2: 10 đến 20 tỷ
-+ 3: 20 đến 50 tỷ
-+ 4: 50 đến 200 tỷ
-+ 5: 200 đến 1000 tỷ
-+ 6: lớn hơn 1000 tỷ
-- Ví dụ: 2</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa 150
-- Địa chỉ thư điện tử 
-- Ví dụ: support@bflow.vn</t>
-  </si>
-  <si>
-    <t>Tổng số nhân viên</t>
-  </si>
-  <si>
-    <t>- Lựa chọn trong các lựa chọn sau:
-+ 1 (&lt; 20 người)
-+ 2 (20 đến 50 người)
-+ 3 (50 đến 200 người)
-+ 4 (200 đến 500 người)
-+ 5 (&gt; 500 người)
-- Ví dụ: 2</t>
-  </si>
-  <si>
-    <t>Thành phần cha</t>
-  </si>
-  <si>
-    <t>- Mã của thành phần cha tại trang tính này
-- Ví dụ: CTY_MTS</t>
-  </si>
-  <si>
-    <t>Liên hệ</t>
-  </si>
-  <si>
-    <t>- Mã liên hệ tại #saledata.contact
-- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
-[Mã liên hê, Là mặc định]
-- Mã liên hệ tại #saledata.contact
-- Là mặc định: 0 là sai, 1 là đúng
-- Lưu ý mã liên hệ nên đặt bên trong dấu nháy đuôi.
-- Ví dụ: [["001", 1], ["002", 0]]</t>
-  </si>
-  <si>
-    <t>- Định dạng ngày-tháng-năm (DD-MM-YYYY)
-- Ví dụ: 31-01-1970</t>
-  </si>
-  <si>
-    <t>Luôn giữ kiểu của ô là text để trình đọc dữ liệu có thể hiểu</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Độ dài tối đa: 100
-- Tên của nhân viên
-- Ví dụ: A</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Độ dài tối đa: 100
-- Họ của nhân viên
-- Ví dụ: Nguyễn Văn</t>
+    <t>#hr.roles</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Vai trò của nhóm người dùng trong tổ chức (có cùng quyền hạn)</t>
+  </si>
+  <si>
+    <t>#hr.groups.level</t>
+  </si>
+  <si>
+    <t>Group Level</t>
+  </si>
+  <si>
+    <t>Cấp bậc nhóm</t>
+  </si>
+  <si>
+    <t>Cấp bậc của các nhóm - còn được gọi là cấp bậc của phòng ban</t>
+  </si>
+  <si>
+    <t>#hr.groups</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
+  </si>
+  <si>
+    <t>Các nhóm trong tổ chức - còn được gọi là phòng ban</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,6 +1093,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions - Chỉ dẫn"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1374,61 +1411,61 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="7" customWidth="1"/>
-    <col min="4" max="5" width="15.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="15.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="22" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="7"/>
+    <col min="8" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="111" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1444,52 +1481,52 @@
       <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="19.77734375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="19.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="26" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="23.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="48.28515625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="172.9" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1507,89 +1544,88 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" style="7" customWidth="1"/>
-    <col min="9" max="10" width="23.21875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="7" customWidth="1"/>
+    <col min="9" max="11" width="23.28515625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85.9" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1602,38 +1638,38 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="65" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="9"/>
+    <col min="5" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="73.150000000000006" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>94</v>
@@ -1649,117 +1685,123 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A0AB4-CD70-4743-A933-50E4AFBD716C}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="23.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="23.140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="37" style="7" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="23.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" style="7" customWidth="1"/>
-    <col min="8" max="14" width="23.109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="37.44140625" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="7"/>
+    <col min="4" max="5" width="34.42578125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="7" customWidth="1"/>
+    <col min="9" max="15" width="23.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="37.42578125" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="147.6" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>154</v>
+        <v>123</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1776,286 +1818,286 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="24.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="34.9" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.9" customHeight="1">
       <c r="A16" s="17" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="29.45" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="34.15" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="28.9" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="21" customHeight="1">
       <c r="A27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="36" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="D28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="86.45">
+      <c r="A29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="55.9" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="62.45" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="42.6" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2089,41 +2131,41 @@
       <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="48.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="48.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="40" style="7" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="47.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2135,93 +2177,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2B7B4-0119-40B2-9AE3-A031B16A0EEC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="19.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="9" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="9" customWidth="1"/>
     <col min="8" max="8" width="18" style="9" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="9" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="9"/>
+    <col min="9" max="9" width="19.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="146.44999999999999" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2237,48 +2279,48 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="10.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="91.9" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2294,90 +2336,90 @@
       <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="10.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="184.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="184.9" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2393,41 +2435,41 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="27" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="21.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2439,42 +2481,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709BFA93-CCDF-43DC-B3BF-04DACD72B0E2}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="27" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.45" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2490,38 +2532,38 @@
       <selection activeCell="D8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="27" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.45" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2537,38 +2579,38 @@
       <selection activeCell="I17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="27" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.45" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Coding\MIS\misui\apps\core\fimport\static\fimport\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRUNG_HOA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4D409DE9-B636-4ACE-8CA5-3FBC9E7B03A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3340E157-6AAA-46F8-8BCE-3FD41B242304}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9C9C38-3453-40C5-926F-9ABA25112224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="2" activeTab="12" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="803" firstSheet="12" activeTab="12" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,22 @@
     <sheet name="#hr.groups.level" sheetId="5" r:id="rId4"/>
     <sheet name="#hr.groups" sheetId="4" r:id="rId5"/>
     <sheet name="#saledata.currency" sheetId="10" r:id="rId6"/>
-    <sheet name="#saledata.account.group" sheetId="11" r:id="rId7"/>
-    <sheet name="#saledata.account.type" sheetId="12" r:id="rId8"/>
-    <sheet name="#saledata.industry" sheetId="13" r:id="rId9"/>
-    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId10"/>
-    <sheet name="#saledata.contact" sheetId="9" r:id="rId11"/>
-    <sheet name="#saledata.salutation" sheetId="8" r:id="rId12"/>
-    <sheet name="#saledata.account" sheetId="15" r:id="rId13"/>
-    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId14"/>
+    <sheet name="#saledata.price.taxcategory" sheetId="19" r:id="rId7"/>
+    <sheet name="#saledata.price.tax" sheetId="21" r:id="rId8"/>
+    <sheet name="#saledata.account.group" sheetId="11" r:id="rId9"/>
+    <sheet name="#saledata.account.type" sheetId="12" r:id="rId10"/>
+    <sheet name="#saledata.industry" sheetId="13" r:id="rId11"/>
+    <sheet name="#saledata.account" sheetId="15" r:id="rId12"/>
+    <sheet name="#saledata.product" sheetId="22" r:id="rId13"/>
+    <sheet name="#saledata.product.uomgroup" sheetId="16" r:id="rId14"/>
+    <sheet name="#saledata.product.producttype" sheetId="17" r:id="rId15"/>
+    <sheet name="#saledata.product.prodcategory" sheetId="18" r:id="rId16"/>
+    <sheet name="#saledata.product.uom" sheetId="20" r:id="rId17"/>
+    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId18"/>
+    <sheet name="#saledata.contact" sheetId="9" r:id="rId19"/>
+    <sheet name="#saledata.salutation" sheetId="8" r:id="rId20"/>
+    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId21"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="461">
   <si>
     <t>STT</t>
   </si>
@@ -108,6 +112,180 @@
 - Ví dụ: 0987654321</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hungnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>Admin@111111</t>
+  </si>
+  <si>
+    <t>hungnh@example.com</t>
+  </si>
+  <si>
+    <t>0901123111</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>Ngô Quang</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>sangnq@example.com</t>
+  </si>
+  <si>
+    <t>0901123112</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>Lê Minh</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>sonlm@example.com</t>
+  </si>
+  <si>
+    <t>0901123113</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>minhtt</t>
+  </si>
+  <si>
+    <t>Trương Tấn</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>minhtt@example.com</t>
+  </si>
+  <si>
+    <t>0901123114</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>phuhm</t>
+  </si>
+  <si>
+    <t>Hồ Minh</t>
+  </si>
+  <si>
+    <t>Phú</t>
+  </si>
+  <si>
+    <t>phuhm@example.com</t>
+  </si>
+  <si>
+    <t>0901123115</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ngocnq</t>
+  </si>
+  <si>
+    <t>Ngọc</t>
+  </si>
+  <si>
+    <t>ngocnq@example.com</t>
+  </si>
+  <si>
+    <t>0901123116</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>thong</t>
+  </si>
+  <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>Thông</t>
+  </si>
+  <si>
+    <t>thongvn@example.com</t>
+  </si>
+  <si>
+    <t>0901123117</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>luongtv</t>
+  </si>
+  <si>
+    <t>Lượng</t>
+  </si>
+  <si>
+    <t>luongtv@example.com</t>
+  </si>
+  <si>
+    <t>0901123118</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Hoale</t>
+  </si>
+  <si>
+    <t>Lê</t>
+  </si>
+  <si>
+    <t>Hòa</t>
+  </si>
+  <si>
+    <t>ldhoa2002@gmail.com</t>
+  </si>
+  <si>
+    <t>0901123110</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>trinh</t>
+  </si>
+  <si>
+    <t>Trần Ngọc</t>
+  </si>
+  <si>
+    <t>Trinh</t>
+  </si>
+  <si>
+    <t>0901124111</t>
+  </si>
+  <si>
     <t>Tên viết tắt  (*, định danh)</t>
   </si>
   <si>
@@ -130,6 +308,45 @@
     <t>- Thành viên của phòng ban
 - Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees. 
 - Ví dụ: EMP0001,EMP0002</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>KD bán lẻ</t>
+  </si>
+  <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>KD dự án</t>
+  </si>
+  <si>
+    <t>KTO</t>
+  </si>
+  <si>
+    <t>Kế toán</t>
+  </si>
+  <si>
+    <t>GĐKD</t>
+  </si>
+  <si>
+    <t>Giám Đốc Kinh Doanh</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Tổng Giám Đốc</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>PP-2,PP-3,PP-4,PP-5,PP-6,PP-7,PP-8,PP-9,PP-10,PP-11</t>
   </si>
   <si>
     <t>Mã (*, định danh)</t>
@@ -207,6 +424,84 @@
 - Ví dụ: QL</t>
   </si>
   <si>
+    <t>PP-2</t>
+  </si>
+  <si>
+    <t>22-09-2022</t>
+  </si>
+  <si>
+    <t>15-12-2000</t>
+  </si>
+  <si>
+    <t>PP-3</t>
+  </si>
+  <si>
+    <t>31-01-1997</t>
+  </si>
+  <si>
+    <t>PP-4</t>
+  </si>
+  <si>
+    <t>30-08-1971</t>
+  </si>
+  <si>
+    <t>PP-5</t>
+  </si>
+  <si>
+    <t>20-09-2001</t>
+  </si>
+  <si>
+    <t>PP-6</t>
+  </si>
+  <si>
+    <t>15-06-1985</t>
+  </si>
+  <si>
+    <t>PP-7</t>
+  </si>
+  <si>
+    <t>31-10-2022</t>
+  </si>
+  <si>
+    <t>17-01-1997</t>
+  </si>
+  <si>
+    <t>PP-8</t>
+  </si>
+  <si>
+    <t>19-09-2000</t>
+  </si>
+  <si>
+    <t>PP-9</t>
+  </si>
+  <si>
+    <t>08-03-2023</t>
+  </si>
+  <si>
+    <t>16-05-1999</t>
+  </si>
+  <si>
+    <t>PP-10</t>
+  </si>
+  <si>
+    <t>huuvp@example.com</t>
+  </si>
+  <si>
+    <t>0901123119</t>
+  </si>
+  <si>
+    <t>30-05-1999</t>
+  </si>
+  <si>
+    <t>PP-11</t>
+  </si>
+  <si>
+    <t>hoalv@example.com</t>
+  </si>
+  <si>
+    <t>31-08-2001</t>
+  </si>
+  <si>
     <t>Phân cấp (*, định danh)</t>
   </si>
   <si>
@@ -235,6 +530,27 @@
   <si>
     <t>- Mô tả cho phó quản lý cấp nhóm
 - Ví dụ: Phó Giám Đốc</t>
+  </si>
+  <si>
+    <t>Ban Giám Đốc</t>
+  </si>
+  <si>
+    <t>Phó TGĐ</t>
+  </si>
+  <si>
+    <t>Phòng</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>Phó phòng</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
+  </si>
+  <si>
+    <t>Trưởng nhóm</t>
   </si>
   <si>
     <t>Phân cấp (*)</t>
@@ -300,6 +616,75 @@
 - Ví dụ: Phó Giám Đốc</t>
   </si>
   <si>
+    <t>BGĐ</t>
+  </si>
+  <si>
+    <t>PP-1</t>
+  </si>
+  <si>
+    <t>SALE</t>
+  </si>
+  <si>
+    <t>Phòng Kinh Doanh</t>
+  </si>
+  <si>
+    <t>PP-3, PP-2</t>
+  </si>
+  <si>
+    <t>GĐ Kinh Doanh</t>
+  </si>
+  <si>
+    <t>Phòng Kế Toán</t>
+  </si>
+  <si>
+    <t>Trưởng phòng Kế toán</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Phòng Nhân Sự</t>
+  </si>
+  <si>
+    <t>Trưởng phòng Nhân sự</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Nhóm Bán lẻ</t>
+  </si>
+  <si>
+    <t>PP-6,PP-7</t>
+  </si>
+  <si>
+    <t>Trưởng nhóm bán lẻ</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Nhóm Dự án</t>
+  </si>
+  <si>
+    <t>PP-8,PP-9</t>
+  </si>
+  <si>
+    <t>Trưởng nhóm DA</t>
+  </si>
+  <si>
+    <t>KTH</t>
+  </si>
+  <si>
+    <t>Phòng Kỹ thuật</t>
+  </si>
+  <si>
+    <t>PP-10,PP-11</t>
+  </si>
+  <si>
+    <t>Trưởng phòng Kỹ thuật</t>
+  </si>
+  <si>
     <t>Tỉ lệ (*)</t>
   </si>
   <si>
@@ -320,8 +705,126 @@
 - Ví dụ: VND</t>
   </si>
   <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: TC001</t>
+  </si>
+  <si>
+    <t>- Tên của danh mục thuế
+- Ví dụ: Thuế xuất khẩu</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thuế xuất khẩu 1</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thuế xuất khẩu 2</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thuế xuất khẩu 3</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thuế xuất khẩu 4</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thuế xuất khẩu 5</t>
+  </si>
+  <si>
+    <t>Loại thuế (*)</t>
+  </si>
+  <si>
+    <t>Loại danh mục thuế (*)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉ lệ (*)
+</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: T001</t>
+  </si>
+  <si>
+    <t>- Tên của thuế
+- Ví dụ: Thuế xuất khẩu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Loại thuế
+(chọn 0 1 2)
+-ví dụ: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Loại danh mục thuế
+tại #saledata.price.taxcategory
+-ví dụ: TC001 </t>
+  </si>
+  <si>
+    <t>-Phần trăm thuế
+-Phải &gt; 0
+-Ví dụ: 5</t>
+  </si>
+  <si>
+    <t>T001</t>
+  </si>
+  <si>
+    <t>T002</t>
+  </si>
+  <si>
+    <t>T003</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
     <t>- Tên của nhóm tài khoản
 - Ví dụ: Đại Lý</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Khách lẻ</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Dự án</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Đại lý</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>VIP 1</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>VIP 2</t>
   </si>
   <si>
     <t>- Bắt buộc, định danh
@@ -340,6 +843,501 @@
   <si>
     <t>- Tên của ngành
 - Ví dụ: Dịch vụ</t>
+  </si>
+  <si>
+    <t>Xây dựng</t>
+  </si>
+  <si>
+    <t>Bất động sản</t>
+  </si>
+  <si>
+    <t>Vận chuyển</t>
+  </si>
+  <si>
+    <t>Sản xuất</t>
+  </si>
+  <si>
+    <t>Tiêu đề (*)</t>
+  </si>
+  <si>
+    <t>Loại tài khoản (*)</t>
+  </si>
+  <si>
+    <t>Cá nhân/ Tổ chức (*)</t>
+  </si>
+  <si>
+    <t>Nhóm tài khoản (*)</t>
+  </si>
+  <si>
+    <t>Lĩnh vực (*)</t>
+  </si>
+  <si>
+    <t>Người quản lý (*)</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Số di động</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Doanh thu hằng năm</t>
+  </si>
+  <si>
+    <t>Tổng số nhân viên</t>
+  </si>
+  <si>
+    <t>Thành phần cha</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa 100
+- Mã của tài khoản
+- Ví dụ: CTY_MTS</t>
+  </si>
+  <si>
+    <t>- Băt buộc
+- Độ dài tối đa: 150
+- Tên của tài khoản
+- Ví dụ: Công Ty TNHH Minh Tâm Solution</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Danh sách mã liên kết với nhau bằng dấu phẩy.
+- Mã loại tài khoản tại #saledata.account.type
+- Ví dụ: AT001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Lựa chọn trong các lựa chọn sau:
++ 0: Cá nhân
++ 1: Tổ chức (mặc định)
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã nhóm tài khoản tại #saledata.account.group
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã lĩnh vực tại #saledata.industry
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Danh sách mã liên kết với nhau bằng dấu phẩy.
+- Mã người quản lý tại #hr.employees
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa: 150
+- Đường dẫn đến website của khách hàng
+- Ví dụ: https://www.bflow.vn</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa: 25
+- Số di động liên hệ
+- Là số điện thoại ở VN
+- Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa 150
+- Địa chỉ thư điện tử 
+- Ví dụ: support@bflow.vn</t>
+  </si>
+  <si>
+    <t>- Độ dài tối đa 150
+- Ví dụ: 0317493763</t>
+  </si>
+  <si>
+    <t>- Lựa chọn trong các lựa chọn sau:
++ 1: 1 đến 10 tỷ
++ 2: 10 đến 20 tỷ
++ 3: 20 đến 50 tỷ
++ 4: 50 đến 200 tỷ
++ 5: 200 đến 1000 tỷ
++ 6: lớn hơn 1000 tỷ
+- Ví dụ: 2</t>
+  </si>
+  <si>
+    <t>- Lựa chọn trong các lựa chọn sau:
++ 1 (&lt; 20 người)
++ 2 (20 đến 50 người)
++ 3 (50 đến 200 người)
++ 4 (200 đến 500 người)
++ 5 (&gt; 500 người)
+- Ví dụ: 2</t>
+  </si>
+  <si>
+    <t>- Mã của thành phần cha tại trang tính này
+- Ví dụ: CTY_MTS</t>
+  </si>
+  <si>
+    <t>- Mã liên hệ tại #saledata.contact
+- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
+[Mã liên hê, Là mặc định]
+- Mã liên hệ tại #saledata.contact
+- Là mặc định: 0 là sai, 1 là đúng
+- Lưu ý mã liên hệ nên đặt bên trong dấu nháy đuôi.
+- Ví dụ: [["001", 1], ["002", 0]]</t>
+  </si>
+  <si>
+    <t>CT1</t>
+  </si>
+  <si>
+    <t>Công ty AB Pixel</t>
+  </si>
+  <si>
+    <t>AT001</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>0311001023</t>
+  </si>
+  <si>
+    <t>[["001",1],["002",0]]</t>
+  </si>
+  <si>
+    <t>CT2</t>
+  </si>
+  <si>
+    <t>Công ty Vận tải Medilog</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>0311001014</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>CT3</t>
+  </si>
+  <si>
+    <t>Công ty Minaco</t>
+  </si>
+  <si>
+    <t>AT001, AT002</t>
+  </si>
+  <si>
+    <t>0311001015</t>
+  </si>
+  <si>
+    <t>0311001016</t>
+  </si>
+  <si>
+    <t>0311001017</t>
+  </si>
+  <si>
+    <t>0311001018</t>
+  </si>
+  <si>
+    <t>0311001019</t>
+  </si>
+  <si>
+    <t>0311001020</t>
+  </si>
+  <si>
+    <t>0311001021</t>
+  </si>
+  <si>
+    <t>Part number</t>
+  </si>
+  <si>
+    <t>Mục đích sản phẩm (*)</t>
+  </si>
+  <si>
+    <t>Loại sản phẩm (*)</t>
+  </si>
+  <si>
+    <t>Danh mục sản phẩm (*)</t>
+  </si>
+  <si>
+    <t>Nhóm đơn vị tính (*)</t>
+  </si>
+  <si>
+    <t>Phương pháp truy xuất</t>
+  </si>
+  <si>
+    <t>Dài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rộng </t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Thể tích</t>
+  </si>
+  <si>
+    <t>Trọng lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đơn vị tính cho việc bán
+</t>
+  </si>
+  <si>
+    <t>Thuế bán</t>
+  </si>
+  <si>
+    <t>Đơn vị tính tồn ko</t>
+  </si>
+  <si>
+    <t>Đơn vị tính mua hàng</t>
+  </si>
+  <si>
+    <t>Thuế mua</t>
+  </si>
+  <si>
+    <t>Nguồn cung cho việc mua</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: pro001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Tên của sản phẩm
+- Ví dụ: Unit</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mục đích của sản phẩm 
+- 0 là bán, 1 là lưu kho, 2 là mua, ko có thì để rỗng
+- Phải theo cấu tạo: 
+[lựa chọn, ...]
+- Ví dụ: [0], [], [1, 2]</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã loại sản phẩm tại #saledata.product.producttype
+- Ví dụ: finished_goods</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã danh mục sản phẩm tại #saledata.product.prodcategory
+- Ví dụ: 001</t>
+  </si>
+  <si>
+    <t>-Bắt buộc
+-Mã nhóm đơn vị tính
+tại #saledata.product.uomgroup
+-Ví dụ: 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 0 là theo batch/Lot
+- 1 là theo serial num </t>
+  </si>
+  <si>
+    <t>-Bắt buộc nếu mục đích sản phẩm có chứa [0]
+-Mã đơn vị tính
+tại #saledata.product.uom</t>
+  </si>
+  <si>
+    <t>-Bắt buộc nếu mục đích sản phẩm có chứa [1]</t>
+  </si>
+  <si>
+    <t>-Bắt buộc nếu mục đích sản phẩm có chứa [1]
+-Mã đơn vị tính
+tại #saledata.product.uom</t>
+  </si>
+  <si>
+    <t>-Bắt buộc nếu mục đích sản phẩm có chứa [2]
+-Mã đơn vị tính
+tại #saledata.product.uom</t>
+  </si>
+  <si>
+    <t>-Bắt buộc nếu mục đích sản phẩm có chứa [2]</t>
+  </si>
+  <si>
+    <t>-Bắt buộc nếu mục đích sản phẩm có chứa [2]
+- 0 là mua hàng, 1 là tự sản xuất</t>
+  </si>
+  <si>
+    <t>PC001</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>[0,1,2]</t>
+  </si>
+  <si>
+    <t>finished_goods, goods</t>
+  </si>
+  <si>
+    <t>VAT-5</t>
+  </si>
+  <si>
+    <t>PC002</t>
+  </si>
+  <si>
+    <t>Product 2</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>VAT-6</t>
+  </si>
+  <si>
+    <t>PC003</t>
+  </si>
+  <si>
+    <t>Product 3</t>
+  </si>
+  <si>
+    <t>VAT-7</t>
+  </si>
+  <si>
+    <t>- Tên của nhóm đơn vị tính
+- Ví dụ: Unit</t>
+  </si>
+  <si>
+    <t>Pro001</t>
+  </si>
+  <si>
+    <t>Unit1</t>
+  </si>
+  <si>
+    <t>Pro002</t>
+  </si>
+  <si>
+    <t>Unit2</t>
+  </si>
+  <si>
+    <t>Pro003</t>
+  </si>
+  <si>
+    <t>Unit3</t>
+  </si>
+  <si>
+    <t>Pro004</t>
+  </si>
+  <si>
+    <t>Unit4</t>
+  </si>
+  <si>
+    <t>Pro005</t>
+  </si>
+  <si>
+    <t>Unit5</t>
+  </si>
+  <si>
+    <t>- Tên của loại sản phẩm
+- Ví dụ: Thành phẩm</t>
+  </si>
+  <si>
+    <t>pro001</t>
+  </si>
+  <si>
+    <t>Thành phẩm 1</t>
+  </si>
+  <si>
+    <t>pro002</t>
+  </si>
+  <si>
+    <t>Thành phẩm 2</t>
+  </si>
+  <si>
+    <t>pro003</t>
+  </si>
+  <si>
+    <t>Thành phẩm 3</t>
+  </si>
+  <si>
+    <t>pro004</t>
+  </si>
+  <si>
+    <t>Thành phẩm 4</t>
+  </si>
+  <si>
+    <t>pro005</t>
+  </si>
+  <si>
+    <t>Thành phẩm 5</t>
+  </si>
+  <si>
+    <t>- Tên của danh mục sản phẩm
+- Ví dụ: Thành phẩm</t>
+  </si>
+  <si>
+    <t>-Nhóm đơn vị tính
+tại: '#saledata.product.productcate'</t>
+  </si>
+  <si>
+    <t>Là đơn vị tham chiếu</t>
+  </si>
+  <si>
+    <t>Tỉ lệ</t>
+  </si>
+  <si>
+    <t>Làm tròn</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: UOM001</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Tên của loại đơn vị đo
+- Ví dụ: Đơn vị 1</t>
+  </si>
+  <si>
+    <t>UOM001</t>
+  </si>
+  <si>
+    <t>Đơn vị 1</t>
+  </si>
+  <si>
+    <t>UOMG001</t>
+  </si>
+  <si>
+    <t>UOM002</t>
+  </si>
+  <si>
+    <t>Đơn vị 2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>UOM003</t>
+  </si>
+  <si>
+    <t>Đơn vị 3</t>
+  </si>
+  <si>
+    <t>UOM004</t>
+  </si>
+  <si>
+    <t>Đơn vị 4</t>
+  </si>
+  <si>
+    <t>UOM005</t>
+  </si>
+  <si>
+    <t>Đơn vị 5</t>
   </si>
   <si>
     <t>Đối tượng áp dụng (*)</t>
@@ -469,6 +1467,93 @@
 - Ví dụ: ACC0001</t>
   </si>
   <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bách</t>
+  </si>
+  <si>
+    <t>Giám Đốc</t>
+  </si>
+  <si>
+    <t>bach@example.com</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>Hồ Thị Xuân Hương</t>
+  </si>
+  <si>
+    <t>huong@example.com</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>Tôn Minh Tâm</t>
+  </si>
+  <si>
+    <t>tam@example.com</t>
+  </si>
+  <si>
+    <t>C007</t>
+  </si>
+  <si>
+    <t>Cao Thị Như Hương</t>
+  </si>
+  <si>
+    <t>huongc@example.com</t>
+  </si>
+  <si>
+    <t>C008</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Trần Văn Chiến</t>
+  </si>
+  <si>
+    <t>chien@example.com</t>
+  </si>
+  <si>
+    <t>C009</t>
+  </si>
+  <si>
+    <t>Lương Thị Như Mai</t>
+  </si>
+  <si>
+    <t>mai@example.com</t>
+  </si>
+  <si>
+    <t>C010</t>
+  </si>
+  <si>
+    <t>Lê Tấn Nam</t>
+  </si>
+  <si>
+    <t>nam@example.com</t>
+  </si>
+  <si>
+    <t>C011</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lựu</t>
+  </si>
+  <si>
+    <t>luu@example.com</t>
+  </si>
+  <si>
+    <t>C012</t>
+  </si>
+  <si>
+    <t>Hồ Minh Trường</t>
+  </si>
+  <si>
+    <t>truong@example.com</t>
+  </si>
+  <si>
     <t>- Bắt buộc
 - Độ dài tối đa: 100
 - Tên của danh xưng
@@ -479,139 +1564,10 @@
 - Ví dụ: Bà</t>
   </si>
   <si>
-    <t>Tiêu đề (*)</t>
-  </si>
-  <si>
-    <t>Loại tài khoản (*)</t>
-  </si>
-  <si>
-    <t>Cá nhân/ Tổ chức (*)</t>
-  </si>
-  <si>
-    <t>Nhóm tài khoản (*)</t>
-  </si>
-  <si>
-    <t>Lĩnh vực (*)</t>
-  </si>
-  <si>
-    <t>Người quản lý (*)</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Số di động</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mã số thuế</t>
-  </si>
-  <si>
-    <t>Doanh thu hằng năm</t>
-  </si>
-  <si>
-    <t>Tổng số nhân viên</t>
-  </si>
-  <si>
-    <t>Thành phần cha</t>
-  </si>
-  <si>
-    <t>Liên hệ</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa 100
-- Mã của tài khoản
-- Ví dụ: CTY_MTS</t>
-  </si>
-  <si>
-    <t>- Băt buộc
-- Độ dài tối đa: 150
-- Tên của tài khoản
-- Ví dụ: Công Ty TNHH Minh Tâm Solution</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Danh sách mã liên kết với nhau bằng dấu phẩy.
-- Mã loại tài khoản tại #saledata.account.type
-- Ví dụ: AT001</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Lựa chọn trong các lựa chọn sau:
-+ 0: Cá nhân
-+ 1: Tổ chức (mặc định)
-- Ví dụ: 1</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Mã nhóm tài khoản tại #saledata.account.group
-- Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Mã lĩnh vực tại #saledata.industry
-- Ví dụ: 001</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Danh sách mã liên kết với nhau bằng dấu phẩy.
-- Mã người quản lý tại #hr.employees
-- Ví dụ: EMP0001</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 150
-- Đường dẫn đến website của khách hàng
-- Ví dụ: https://www.bflow.vn</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 25
-- Số di động liên hệ
-- Là số điện thoại ở VN
-- Ví dụ: 0987654321</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa 150
-- Địa chỉ thư điện tử 
-- Ví dụ: support@bflow.vn</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa 150
-- Ví dụ: 0317493763</t>
-  </si>
-  <si>
-    <t>- Lựa chọn trong các lựa chọn sau:
-+ 1: 1 đến 10 tỷ
-+ 2: 10 đến 20 tỷ
-+ 3: 20 đến 50 tỷ
-+ 4: 50 đến 200 tỷ
-+ 5: 200 đến 1000 tỷ
-+ 6: lớn hơn 1000 tỷ
-- Ví dụ: 2</t>
-  </si>
-  <si>
-    <t>- Lựa chọn trong các lựa chọn sau:
-+ 1 (&lt; 20 người)
-+ 2 (20 đến 50 người)
-+ 3 (50 đến 200 người)
-+ 4 (200 đến 500 người)
-+ 5 (&gt; 500 người)
-- Ví dụ: 2</t>
-  </si>
-  <si>
-    <t>- Mã của thành phần cha tại trang tính này
-- Ví dụ: CTY_MTS</t>
-  </si>
-  <si>
-    <t>- Mã liên hệ tại #saledata.contact
-- Là danh sách dữ liệu theo mảng, mỗi phần tử trong mảng có cấu tạo như sau:
-[Mã liên hê, Là mặc định]
-- Mã liên hệ tại #saledata.contact
-- Là mặc định: 0 là sai, 1 là đúng
-- Lưu ý mã liên hệ nên đặt bên trong dấu nháy đuôi.
-- Ví dụ: [["001", 1], ["002", 0]]</t>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Chị</t>
   </si>
   <si>
     <t xml:space="preserve">Phụ lục </t>
@@ -678,9 +1634,6 @@
   </si>
   <si>
     <t>Employee</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
   </si>
   <si>
     <t>Nhân viên của công ty. Nếu nhân viên cho quyền đăng nhập vào hệ thống thì cung cấp #account.users và liên kết chúng với nhân viên.</t>
@@ -866,9 +1819,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Nhóm</t>
-  </si>
-  <si>
     <t>Các nhóm trong tổ chức - còn được gọi là phòng ban</t>
   </si>
 </sst>
@@ -876,7 +1826,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +1893,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -964,7 +1926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1007,12 +1969,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1056,6 +2046,25 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,19 +2102,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instructions - Chỉ dẫn"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1405,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA1278D-5766-4C30-B51D-59CB3DF80128}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1468,17 +2464,1551 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{C672E883-7095-41A0-94DF-B341D3032430}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{CD2437E4-A8E7-40AE-8FE8-4FA085C3A39A}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{F4F4DF43-4D83-4D4D-88AD-2FC4D1C2691E}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{29BA8D67-8BC7-4162-BA5A-D7DA9DC6B5FF}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{16137D75-A55D-4460-B08B-16C52D1DC980}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{5904A3B3-5F02-4996-A6DC-D47F96127FEE}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{B76213B3-96B5-458D-B8E3-6A7CE2C982F4}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{F8A12551-A120-4C61-9C8E-61727AFF4A40}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{DBB0B64B-1789-4852-A997-A7DA92DD1B33}"/>
+    <hyperlink ref="E3" r:id="rId10" xr:uid="{ECED445A-8FF3-42D1-AF60-136AC458D56B}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{55794E7E-9690-4000-9528-D84CA40B006D}"/>
+    <hyperlink ref="F8" r:id="rId12" xr:uid="{7001F252-FB5B-478D-A2D5-E7909F1D2218}"/>
+    <hyperlink ref="E9" r:id="rId13" xr:uid="{2B8C58A3-080C-4BCB-A8E1-0FEEC4FAB912}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{4D4DAC02-2DF9-4BD4-9B29-2708DDF41C08}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{267759E7-3DA4-4C7F-9BFE-6B46C3D239F6}"/>
+    <hyperlink ref="F10" r:id="rId16" xr:uid="{EE3E0AD0-718D-446A-8A56-3F586F681E2C}"/>
+    <hyperlink ref="E11" r:id="rId17" xr:uid="{F92AEA32-DEF7-40EB-B37D-06C0DB01BD9D}"/>
+    <hyperlink ref="E12" r:id="rId18" xr:uid="{B1EAE458-3D52-4ABD-81BC-D9C1D26F02B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359912D-CDDC-4C74-BCFB-CBE40EB489F2}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="27" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.45" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBC7503-D39D-4D5C-B33A-E4C15DD2E38F}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="27" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.45" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A0AB4-CD70-4743-A933-50E4AFBD716C}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="23.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37" style="7" customWidth="1"/>
+    <col min="4" max="5" width="34.42578125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="7" customWidth="1"/>
+    <col min="9" max="15" width="23.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="37.42578125" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="14.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="147.6" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
+      <c r="L6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="L7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="L8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
+      <c r="L9" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
+      <c r="L10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
+      <c r="L11" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C2273-23CD-4D05-8CA4-F0EB0A365E8D}">
+  <dimension ref="A1:U5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="17" max="17" width="26.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="30.75">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="137.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" s="20">
+        <v>123</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>20</v>
+      </c>
+      <c r="L3" s="20">
+        <v>20</v>
+      </c>
+      <c r="M3" s="20">
+        <v>20</v>
+      </c>
+      <c r="N3" s="20">
+        <v>8000</v>
+      </c>
+      <c r="O3" s="20">
+        <v>200</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="T3" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="U3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="20">
+        <v>123</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>20</v>
+      </c>
+      <c r="L4" s="20">
+        <v>20</v>
+      </c>
+      <c r="M4" s="20">
+        <v>20</v>
+      </c>
+      <c r="N4" s="20">
+        <v>8000</v>
+      </c>
+      <c r="O4" s="20">
+        <v>200</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="U4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="20">
+        <v>123</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>20</v>
+      </c>
+      <c r="L5" s="20">
+        <v>20</v>
+      </c>
+      <c r="M5" s="20">
+        <v>20</v>
+      </c>
+      <c r="N5" s="20">
+        <v>8000</v>
+      </c>
+      <c r="O5" s="20">
+        <v>200</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="U5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7E404F-3B5C-4DD3-81F3-6BF8C7BC03AA}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30.75">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="91.5">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93ACA88-1D16-403D-BA6F-0FEB58847BDF}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45.75">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103DB413-C452-4A76-9162-EF01DE565453}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F374A0-00F0-4E1C-9781-A1EAFC0D62B2}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60.75">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863D4F3-258D-41FD-90A7-5BEE0F94C0B4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:XFD1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1497,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="172.9" customHeight="1">
@@ -1517,16 +4047,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>74</v>
+        <v>374</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>75</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -1539,12 +4069,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45619C8-AAF7-43DE-831A-2BED068D71D3}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1566,34 +4096,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.9" customHeight="1">
@@ -1601,31 +4131,371 @@
         <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{FA70331B-3FD0-4AA7-978D-5DC49115D974}"/>
+    <hyperlink ref="I4:I11" r:id="rId2" display="bach@example.com" xr:uid="{57416B5E-9A0D-4A78-BEA4-5A6C0246F3CA}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{1FD5392B-BD65-4185-AE81-02522080A72B}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{55607EA0-3C37-4A9D-B51E-F754D31111A2}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{71106208-6739-4387-A8A7-B414BB37FAE8}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{E09DFAA8-8229-4833-A474-24D96A999C4A}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{ADF76280-8418-461B-9A71-E2D289B67E49}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{BD7750E2-E615-4247-AF91-188DF4C88B03}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{4FB92AE5-C86F-4675-AD71-346C95FAB917}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{D5EE8399-09A8-4092-B208-F0B7E1B71FCA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373C485-720B-481D-9EE6-F43D8158DF65}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="48.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="40" style="7" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="7" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1633,12 +4503,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA7C1B-B0F0-4AC8-A907-82185EA45827}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1655,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="73.150000000000006" customHeight="1">
@@ -1669,13 +4539,35 @@
         <v>7</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>94</v>
+        <v>423</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>95</v>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -1683,138 +4575,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A0AB4-CD70-4743-A933-50E4AFBD716C}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="23.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37" style="7" customWidth="1"/>
-    <col min="4" max="5" width="34.42578125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="23.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="7" customWidth="1"/>
-    <col min="9" max="15" width="23.140625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="37.42578125" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="147.6" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1830,17 +4595,17 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>125</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1865,13 +4630,13 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="34.9" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6"/>
@@ -1886,65 +4651,65 @@
       <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="28.9" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="A16" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+        <v>432</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="3" t="s">
-        <v>131</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+        <v>434</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="29.45" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
+        <v>436</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="B20" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
@@ -1960,105 +4725,105 @@
       <c r="A25"/>
     </row>
     <row r="26" spans="1:5" ht="28.9" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>139</v>
+        <v>441</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>140</v>
+        <v>442</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>141</v>
+        <v>443</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>131</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>444</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>445</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>144</v>
+        <v>446</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="86.45">
+    <row r="29" spans="1:5" ht="87">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>447</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>448</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>148</v>
+        <v>449</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="55.9" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>452</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>152</v>
+        <v>453</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="62.45" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>454</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>154</v>
+        <v>455</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>456</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>156</v>
+        <v>457</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="42.6" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>157</v>
+        <v>458</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>459</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2123,62 +4888,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373C485-720B-481D-9EE6-F43D8158DF65}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="48.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="40" style="7" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75.599999999999994" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2B7B4-0119-40B2-9AE3-A031B16A0EEC}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2201,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>3</v>
@@ -2210,25 +4925,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="146.44999999999999" customHeight="1">
@@ -2236,47 +4951,350 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>36</v>
+      <c r="H6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{1FAA6A0E-DEA5-4B37-8238-AF5AEC7E2AA1}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{FE305129-4672-45BD-B389-2588D0EB56CA}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{5171166E-28FD-4501-8E03-CEFD1C2336C7}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{8EB4D5ED-5771-41EB-AF11-DE8BF9CCF092}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{F4BE50DD-211C-442D-AC11-51739BE16C0A}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{5A97E830-5A56-41FD-8F2C-9254BD0384D9}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{BCE37510-9A1D-4335-8A71-66E399257AEA}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{A782C0BC-CEA9-481B-BC0F-09CAAEE75F76}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{EA8F2057-5952-44E5-9EC0-C06B31372923}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{D2835146-C9CE-4F0F-932B-EC2519AEE487}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03E835D-3C08-48D8-8F7C-F17E0A0FF583}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2294,16 +5312,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="91.9" customHeight="1">
@@ -2311,16 +5329,64 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2330,10 +5396,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B36471-B49B-4FB2-BB36-0F0FCC8EE11D}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A1:XFD1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2357,34 +5423,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="184.9" customHeight="1">
@@ -2392,34 +5458,213 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>60</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2449,27 +5694,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="57.6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.95">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2478,11 +5723,273 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F09C7BA-C8C2-40F7-8043-9B2FE7A8085F}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45.75">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81502AC1-5E98-491D-93A4-4414314FE91D}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.75">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45.75">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709BFA93-CCDF-43DC-B3BF-04DACD72B0E2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2499,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="56.45" customHeight="1">
@@ -2513,104 +6020,65 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359912D-CDDC-4C74-BCFB-CBE40EB489F2}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="27" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBC7503-D39D-4D5C-B33A-E4C15DD2E38F}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="7"/>
-    <col min="2" max="2" width="27" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>70</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA3A8B-9BE5-4699-82A0-C78F0B2BC594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA6F90D-0E20-46C4-8977-6FD6ABD89992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="10" activeTab="16" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
@@ -711,10 +711,6 @@
 -Mã nhóm đơn vị tính
 tại #saledata.product.uomgroup
 -Ví dụ: 001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- 0 là theo batch/Lot
-- 1 là theo serial num </t>
   </si>
   <si>
     <t>-Bắt buộc nếu mục đích sản phẩm có chứa [0]
@@ -1743,6 +1739,11 @@
   </si>
   <si>
     <t>nva@example.com</t>
+  </si>
+  <si>
+    <t>- 1 là theo batch/Lot
+- 2 là theo serial num 
+- 0 là không có</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2032,6 +2033,52 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2055,64 +2102,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2687,40 +2676,40 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,52 +2759,52 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2945,116 +2934,116 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25">
+        <v>311001023</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="C4" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E4" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F4" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G4" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="H3" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33">
-        <v>311001023</v>
-      </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33" t="s">
+      <c r="H4" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25">
+        <v>311001014</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="33">
+      <c r="C5" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="25">
         <v>1</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F5" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G5" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33">
-        <v>311001014</v>
-      </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33">
+      <c r="H5" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25">
         <v>311001015</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33" t="s">
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3101,29 +3090,29 @@
         <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="26" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3165,13 +3154,13 @@
         <v>164</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
@@ -3179,156 +3168,156 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>182</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="E3" s="25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="33">
+      <c r="D4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
         <v>1</v>
       </c>
-      <c r="F3" s="34">
+      <c r="G4" s="26">
         <v>1</v>
       </c>
-      <c r="G3" s="34">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="33">
+      <c r="G5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F6" s="26">
         <v>1</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G6" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="33">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="25">
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F7" s="26">
         <v>1</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G7" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
-        <v>4</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="33">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="32">
         <v>1</v>
       </c>
-      <c r="G6" s="34">
+      <c r="F8" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="34">
-        <v>5</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="34">
-        <v>1</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="34">
-        <v>6</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="E8" s="44">
-        <v>1</v>
-      </c>
-      <c r="F8" s="34">
-        <v>1</v>
-      </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E9" s="43"/>
+      <c r="E9" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3372,7 +3361,7 @@
         <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3418,50 +3407,50 @@
         <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34" t="s">
+      <c r="C4" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="D4" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="D4" s="34" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="26" t="s">
         <v>436</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3463,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3588,7 +3577,7 @@
         <v>182</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>183</v>
+        <v>449</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
@@ -3596,182 +3585,182 @@
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="U2" s="16" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="33">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D3" s="33">
+        <v>123</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="33" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45">
+      <c r="G3" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="33">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="45" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="U3" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="33">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="D3" s="45">
-        <v>123</v>
-      </c>
-      <c r="E3" s="45" t="s">
+      <c r="H4" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="J3" s="45">
-        <v>1</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="34" t="s">
+      <c r="I4" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="Q3" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="R3" s="34" t="s">
+      <c r="J4" s="33">
+        <v>0</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="U4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="33">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="S3" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="T3" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="U3" s="45">
+      <c r="J5" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="45">
-        <v>2</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>442</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="J4" s="45">
-        <v>0</v>
-      </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="U4" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="45">
-        <v>3</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>445</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
-        <v>437</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>446</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="J5" s="45">
-        <v>0</v>
-      </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q5" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="R5" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="U5" s="45">
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="U5" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3816,13 +3805,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3833,7 +3822,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3844,7 +3833,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3882,31 +3871,31 @@
         <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -3914,61 +3903,61 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="J2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="D3" s="33">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25">
+        <v>903331332</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33">
-        <v>903331332</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I4" s="12"/>
@@ -4021,140 +4010,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C3" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="33" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D4" s="25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="33" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
-        <v>1</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="33">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="33">
-        <v>4</v>
-      </c>
-      <c r="B8" s="33" t="s">
+      <c r="C8" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="33">
-        <v>5</v>
-      </c>
-      <c r="B9" s="33" t="s">
+      <c r="C9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="25">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="33">
-        <v>6</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="33">
-        <v>7</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4194,10 +4183,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>80</v>
@@ -4211,13 +4200,13 @@
         <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4250,17 +4239,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4285,13 +4274,13 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
@@ -4306,65 +4295,65 @@
       <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -4380,283 +4369,283 @@
       <c r="A25"/>
     </row>
     <row r="26" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="C27" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>250</v>
-      </c>
       <c r="E27" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>252</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>258</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>259</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="C31" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="D31" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>265</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="C44" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>138</v>
@@ -4666,10 +4655,10 @@
     </row>
     <row r="47" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -4697,7 +4686,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2B7B4-0119-40B2-9AE3-A031B16A0EEC}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
@@ -4719,37 +4708,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="37" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4757,395 +4746,392 @@
       <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>347</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>350</v>
+      <c r="B2" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
-      <c r="B3" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>346</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>351</v>
+      <c r="B3" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
-      <c r="B4" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>352</v>
+      <c r="B4" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
-      <c r="B5" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="B5" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
-      <c r="B6" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="B6" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="51">
+      <c r="A7" s="27">
         <v>1</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="D7" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="E7" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="F7" s="25">
+        <v>901123121</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="F7" s="40">
-        <v>901123121</v>
-      </c>
-      <c r="G7" s="49" t="s">
+      <c r="H7" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="I7" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="27">
+        <v>2</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="51">
-        <v>2</v>
-      </c>
-      <c r="B8" s="51" t="s">
+      <c r="C8" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="D8" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="E8" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="F8" s="25">
+        <v>901123122</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="40">
-        <v>901123122</v>
-      </c>
-      <c r="G8" s="49" t="s">
+      <c r="H8" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="I8" s="51" t="s">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="27">
+        <v>3</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="51">
-        <v>3</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="C9" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="E9" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="F9" s="25">
+        <v>901123123</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="F9" s="40">
-        <v>901123123</v>
-      </c>
-      <c r="G9" s="49" t="s">
+      <c r="H9" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="H9" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="I9" s="51" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="27">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="51">
-        <v>4</v>
-      </c>
-      <c r="B10" s="51" t="s">
+      <c r="C10" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="D10" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="E10" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="F10" s="25">
+        <v>901123124</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="40">
-        <v>901123124</v>
-      </c>
-      <c r="G10" s="49" t="s">
+      <c r="H10" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="H10" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>377</v>
-      </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E21" s="48"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5292,249 +5278,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="I2" s="33" t="s">
+      <c r="H3" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="K2" s="33" t="s">
+      <c r="J3" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="33" t="s">
+    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D4" s="25" t="s">
         <v>384</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E4" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="33" t="s">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="K3" s="33" t="s">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="25">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
-        <v>1</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="25">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="33">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
+        <v>4</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="33">
-        <v>2</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="E9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="33">
-        <v>3</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="33">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="33">
-        <v>4</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="33">
-        <v>2</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5624,16 +5610,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5678,102 +5664,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="34">
+      <c r="C3" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="E3" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C5" s="26" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E5" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="34">
-        <v>2</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="34">
+      <c r="F5" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="34">
-        <v>3</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="D5" s="34">
-        <v>1</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="34">
-        <v>4</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="D6" s="34">
-        <v>1</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="F6" s="26">
         <v>10</v>
       </c>
     </row>
@@ -5825,64 +5811,64 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="33"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="C5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="33">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="C6" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="33"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="33">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA6F90D-0E20-46C4-8977-6FD6ABD89992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70BC7A-A749-4AB1-82A1-73226D7A2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="10" activeTab="16" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="455">
   <si>
     <t>STT</t>
   </si>
@@ -1744,6 +1744,24 @@
     <t>- 1 là theo batch/Lot
 - 2 là theo serial num 
 - 0 là không có</t>
+  </si>
+  <si>
+    <t>Giá chung</t>
+  </si>
+  <si>
+    <t>-General price của sản phẩm</t>
+  </si>
+  <si>
+    <t>Phương thức định giá</t>
+  </si>
+  <si>
+    <t>Giá tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>-0 là nhập trước xuất trước
+-1 là bình quân gia quyền
+-2 là thực tế đích danh
+- Bắt buộc nếu sản phẩm lưu kho</t>
   </si>
 </sst>
 </file>
@@ -3460,10 +3478,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C2273-23CD-4D05-8CA4-F0EB0A365E8D}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3480,14 +3498,16 @@
     <col min="10" max="10" width="24.453125" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" customWidth="1"/>
     <col min="16" max="16" width="27.1796875" customWidth="1"/>
-    <col min="17" max="17" width="26.54296875" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
-    <col min="19" max="19" width="26" customWidth="1"/>
-    <col min="20" max="20" width="15.1796875" customWidth="1"/>
-    <col min="21" max="21" width="28.81640625" customWidth="1"/>
+    <col min="17" max="18" width="26.54296875" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="26.54296875" customWidth="1"/>
+    <col min="21" max="21" width="20" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
+    <col min="23" max="23" width="15.1796875" customWidth="1"/>
+    <col min="24" max="24" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3540,19 +3560,28 @@
         <v>172</v>
       </c>
       <c r="R1" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3591,19 +3620,26 @@
         <v>184</v>
       </c>
       <c r="R2" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="X2" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -3645,20 +3681,29 @@
       <c r="Q3" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="R3" s="26" t="s">
-        <v>199</v>
+      <c r="R3" s="33">
+        <v>100000</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="33">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26">
+        <v>100000</v>
+      </c>
+      <c r="V3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="W3" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="U3" s="33">
+      <c r="X3" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -3698,20 +3743,29 @@
       <c r="Q4" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="R4" s="26" t="s">
-        <v>199</v>
+      <c r="R4" s="33">
+        <v>200000</v>
       </c>
       <c r="S4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="33">
+        <v>0</v>
+      </c>
+      <c r="U4" s="26">
+        <v>200000</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="W4" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="U4" s="33">
+      <c r="X4" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -3751,16 +3805,25 @@
       <c r="Q5" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="R5" s="26" t="s">
-        <v>199</v>
+      <c r="R5" s="33">
+        <v>300000</v>
       </c>
       <c r="S5" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="33">
+        <v>0</v>
+      </c>
+      <c r="U5" s="26">
+        <v>300000</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="W5" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="U5" s="33">
+      <c r="X5" s="33">
         <v>0</v>
       </c>
     </row>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70BC7A-A749-4AB1-82A1-73226D7A2C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8E58F9-411C-4419-80E2-EF7E50B6D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="10" activeTab="16" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
@@ -1755,13 +1755,13 @@
     <t>Phương thức định giá</t>
   </si>
   <si>
-    <t>Giá tiêu chuẩn</t>
+    <t>Giá vốn tiêu chuẩn</t>
   </si>
   <si>
     <t>-0 là nhập trước xuất trước
 -1 là bình quân gia quyền
--2 là thực tế đích danh
-- Bắt buộc nếu sản phẩm lưu kho</t>
+- Bắt buộc nếu sản phẩm lưu kho
+- Lưu ý: Khi import sản phẩm, trường hợp có cách ghi nhận khác các phương pháp này, sau khi hoàn tất cập nhập hệ thống, vui lòng vào chi tiết sản phẩm để điều chỉnh</t>
   </si>
 </sst>
 </file>
@@ -3480,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C2273-23CD-4D05-8CA4-F0EB0A365E8D}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3581,7 +3581,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8E58F9-411C-4419-80E2-EF7E50B6D7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6772712-56DC-4006-A84A-00F5591DA584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="10" activeTab="16" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="11" activeTab="17" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,12 @@
     <sheet name="#saledata.product.uom" sheetId="20" r:id="rId14"/>
     <sheet name="#saledata.product.producttype" sheetId="17" r:id="rId15"/>
     <sheet name="#saledata.product.prodcategory" sheetId="18" r:id="rId16"/>
-    <sheet name="#saledata.product" sheetId="22" r:id="rId17"/>
-    <sheet name="#saledata.salutation" sheetId="8" r:id="rId18"/>
-    <sheet name="#saledata.contact" sheetId="9" r:id="rId19"/>
-    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId20"/>
-    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId21"/>
+    <sheet name="#saledata.product.manufacturer" sheetId="23" r:id="rId17"/>
+    <sheet name="#saledata.product" sheetId="22" r:id="rId18"/>
+    <sheet name="#saledata.salutation" sheetId="8" r:id="rId19"/>
+    <sheet name="#saledata.contact" sheetId="9" r:id="rId20"/>
+    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId21"/>
+    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="459">
   <si>
     <t>STT</t>
   </si>
@@ -1763,6 +1764,21 @@
 - Bắt buộc nếu sản phẩm lưu kho
 - Lưu ý: Khi import sản phẩm, trường hợp có cách ghi nhận khác các phương pháp này, sau khi hoàn tất cập nhập hệ thống, vui lòng vào chi tiết sản phẩm để điều chỉnh</t>
   </si>
+  <si>
+    <t>Hãng sản xuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mã hãng sản xuất tại #saledata.product.manufacturer</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Độ dài tối đa: 100
+- Ví dụ: manu001</t>
+  </si>
+  <si>
+    <t>- Tên của hãng
+- Ví dụ: Hãng 01</t>
+  </si>
 </sst>
 </file>
 
@@ -1839,7 +1855,7 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3393,7 +3409,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3477,11 +3493,93 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783ACB7-D919-4F74-AC1A-D54D8522C4AB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="35.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <v>3</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C2273-23CD-4D05-8CA4-F0EB0A365E8D}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3494,20 +3592,21 @@
     <col min="6" max="6" width="21.453125" customWidth="1"/>
     <col min="7" max="7" width="21.1796875" customWidth="1"/>
     <col min="8" max="8" width="24.453125" customWidth="1"/>
-    <col min="9" max="9" width="28.453125" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="16" max="16" width="27.1796875" customWidth="1"/>
-    <col min="17" max="18" width="26.54296875" customWidth="1"/>
-    <col min="19" max="19" width="20" customWidth="1"/>
-    <col min="20" max="20" width="26.54296875" customWidth="1"/>
-    <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="26" customWidth="1"/>
-    <col min="23" max="23" width="15.1796875" customWidth="1"/>
-    <col min="24" max="24" width="28.81640625" customWidth="1"/>
+    <col min="9" max="9" width="32.90625" customWidth="1"/>
+    <col min="10" max="10" width="28.453125" customWidth="1"/>
+    <col min="11" max="11" width="24.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" customWidth="1"/>
+    <col min="17" max="17" width="27.1796875" customWidth="1"/>
+    <col min="18" max="19" width="26.54296875" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="26.54296875" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1"/>
+    <col min="23" max="23" width="26" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" customWidth="1"/>
+    <col min="25" max="25" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3533,55 +3632,58 @@
         <v>163</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -3602,44 +3704,47 @@
       <c r="H2" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="16"/>
+      <c r="W2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="X2" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
         <v>1</v>
       </c>
@@ -3664,46 +3769,45 @@
       <c r="H3" s="33" t="s">
         <v>428</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="J3" s="33">
+      <c r="K3" s="33">
         <v>1</v>
       </c>
-      <c r="K3" s="33"/>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="R3" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="R3" s="33">
+      <c r="S3" s="33"/>
+      <c r="T3" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" s="33">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26">
         <v>100000</v>
       </c>
-      <c r="S3" s="26" t="s">
+      <c r="W3" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="T3" s="33">
+      <c r="X3" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y3" s="33">
         <v>0</v>
       </c>
-      <c r="U3" s="26">
-        <v>100000</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="W3" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="X3" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>2</v>
       </c>
@@ -3726,46 +3830,47 @@
       <c r="H4" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="33">
+      <c r="K4" s="33">
         <v>0</v>
       </c>
-      <c r="K4" s="33"/>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="R4" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="R4" s="33">
+      <c r="S4" s="33">
         <v>200000</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="T4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="T4" s="33">
+      <c r="U4" s="33">
         <v>0</v>
       </c>
-      <c r="U4" s="26">
+      <c r="V4" s="26">
         <v>200000</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="W4" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="X4" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="X4" s="33">
+      <c r="Y4" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -3788,42 +3893,43 @@
       <c r="H5" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="33">
+      <c r="K5" s="33">
         <v>0</v>
       </c>
-      <c r="K5" s="33"/>
       <c r="L5" s="33"/>
       <c r="M5" s="33"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="33"/>
+      <c r="Q5" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="R5" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="R5" s="33">
+      <c r="S5" s="33">
         <v>300000</v>
       </c>
-      <c r="S5" s="26" t="s">
+      <c r="T5" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="T5" s="33">
+      <c r="U5" s="33">
         <v>0</v>
       </c>
-      <c r="U5" s="26">
+      <c r="V5" s="26">
         <v>300000</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="W5" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="W5" s="33" t="s">
+      <c r="X5" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="X5" s="33">
+      <c r="Y5" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3832,7 +3938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA7C1B-B0F0-4AC8-A907-82185EA45827}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3904,7 +4010,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373C485-720B-481D-9EE6-F43D8158DF65}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" style="7"/>
+    <col min="2" max="2" width="48.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="40" style="7" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="39"/>
+      <c r="B3" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="39"/>
+      <c r="B4" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
+        <v>5</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
+        <v>6</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="25">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45619C8-AAF7-43DE-831A-2BED068D71D3}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -4055,168 +4322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373C485-720B-481D-9EE6-F43D8158DF65}">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" style="7"/>
-    <col min="2" max="2" width="48.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="40" style="7" customWidth="1"/>
-    <col min="4" max="4" width="47.7265625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="25">
-        <v>3</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
-        <v>7</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863D4F3-258D-41FD-90A7-5BEE0F94C0B4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4282,7 +4388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
   <dimension ref="A1:E47"/>
   <sheetViews>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6772712-56DC-4006-A84A-00F5591DA584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327FB89-AC43-4547-B79A-497DE098AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="11" activeTab="17" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="10" activeTab="10" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,13 @@
     <sheet name="#saledata.account" sheetId="15" r:id="rId12"/>
     <sheet name="#saledata.product.uomgroup" sheetId="16" r:id="rId13"/>
     <sheet name="#saledata.product.uom" sheetId="20" r:id="rId14"/>
-    <sheet name="#saledata.product.producttype" sheetId="17" r:id="rId15"/>
-    <sheet name="#saledata.product.prodcategory" sheetId="18" r:id="rId16"/>
-    <sheet name="#saledata.product.manufacturer" sheetId="23" r:id="rId17"/>
-    <sheet name="#saledata.product" sheetId="22" r:id="rId18"/>
-    <sheet name="#saledata.salutation" sheetId="8" r:id="rId19"/>
-    <sheet name="#saledata.contact" sheetId="9" r:id="rId20"/>
-    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId21"/>
-    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId22"/>
+    <sheet name="#saledata.product.prodcategory" sheetId="18" r:id="rId15"/>
+    <sheet name="#saledata.product.manufacturer" sheetId="23" r:id="rId16"/>
+    <sheet name="#saledata.product" sheetId="22" r:id="rId17"/>
+    <sheet name="#saledata.salutation" sheetId="8" r:id="rId18"/>
+    <sheet name="#saledata.contact" sheetId="9" r:id="rId19"/>
+    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId20"/>
+    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="455">
   <si>
     <t>STT</t>
   </si>
@@ -699,11 +698,6 @@
   </si>
   <si>
     <t>- Bắt buộc
-- Mã loại sản phẩm tại #saledata.product.producttype
-- Ví dụ: finished_goods</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
 - Mã danh mục sản phẩm tại #saledata.product.prodcategory
 - Ví dụ: 001</t>
   </si>
@@ -747,10 +741,6 @@
   <si>
     <t>- Tên của nhóm đơn vị tính
 - Ví dụ: Unit</t>
-  </si>
-  <si>
-    <t>- Tên của loại sản phẩm
-- Ví dụ: Thành phẩm</t>
   </si>
   <si>
     <t>- Tên của danh mục sản phẩm
@@ -1228,9 +1218,6 @@
     <t>#saledata.price.taxcategory</t>
   </si>
   <si>
-    <t>#saledata.product.producttype</t>
-  </si>
-  <si>
     <t>#saledata.product.prodcategory</t>
   </si>
   <si>
@@ -1264,9 +1251,6 @@
     <t>Danh xưng</t>
   </si>
   <si>
-    <t>Loại sản phẩm</t>
-  </si>
-  <si>
     <t>Danh mục sản phẩm</t>
   </si>
   <si>
@@ -1298,9 +1282,6 @@
   </si>
   <si>
     <t>Unit Of Measure</t>
-  </si>
-  <si>
-    <t>Product Type</t>
   </si>
   <si>
     <t>Product Category</t>
@@ -1778,6 +1759,11 @@
   <si>
     <t>- Tên của hãng
 - Ví dụ: Hãng 01</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã loại sản phẩm tại tính năng master data config/ item/ product types
+- Ví dụ: finished_goods</t>
   </si>
 </sst>
 </file>
@@ -2714,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -2726,10 +2712,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -2738,10 +2724,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -2754,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBC7503-D39D-4D5C-B33A-E4C15DD2E38F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2797,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>121</v>
@@ -2809,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>122</v>
@@ -2821,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>123</v>
@@ -2833,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>124</v>
@@ -2972,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>154</v>
@@ -2984,13 +2970,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -3010,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>156</v>
@@ -3022,13 +3008,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -3048,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>158</v>
@@ -3060,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -3124,7 +3110,7 @@
         <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3133,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3144,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>170</v>
@@ -3188,13 +3174,13 @@
         <v>164</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
@@ -3202,16 +3188,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3219,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
@@ -3242,13 +3228,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E4" s="25">
         <v>0</v>
@@ -3265,13 +3251,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E5" s="25">
         <v>0</v>
@@ -3288,13 +3274,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="25">
         <v>0</v>
@@ -3311,13 +3297,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E7" s="25">
         <v>0</v>
@@ -3334,13 +3320,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E8" s="32">
         <v>1</v>
@@ -3359,52 +3345,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93ACA88-1D16-403D-BA6F-0FEB58847BDF}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103DB413-C452-4A76-9162-EF01DE565453}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3441,7 +3381,7 @@
         <v>177</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3450,13 +3390,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3464,13 +3404,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -3478,13 +3418,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -3492,7 +3432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783ACB7-D919-4F74-AC1A-D54D8522C4AB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3526,10 +3466,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3541,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D3" s="26"/>
     </row>
@@ -3553,7 +3493,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D4" s="26"/>
     </row>
@@ -3565,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D5" s="26"/>
     </row>
@@ -3574,12 +3514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C2273-23CD-4D05-8CA4-F0EB0A365E8D}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3632,7 +3572,7 @@
         <v>163</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>164</v>
@@ -3662,16 +3602,16 @@
         <v>172</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>173</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>174</v>
@@ -3699,19 +3639,19 @@
         <v>179</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="K2" s="16" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
@@ -3719,29 +3659,29 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="T2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="S2" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>185</v>
-      </c>
       <c r="U2" s="16" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -3749,29 +3689,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D3" s="33">
         <v>123</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K3" s="33">
         <v>1</v>
@@ -3782,14 +3722,14 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U3" s="33">
         <v>0</v>
@@ -3798,10 +3738,10 @@
         <v>100000</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Y3" s="33">
         <v>0</v>
@@ -3812,27 +3752,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K4" s="33">
         <v>0</v>
@@ -3843,16 +3783,16 @@
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
       <c r="Q4" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="S4" s="33">
         <v>200000</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U4" s="33">
         <v>0</v>
@@ -3861,10 +3801,10 @@
         <v>200000</v>
       </c>
       <c r="W4" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X4" s="33" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Y4" s="33">
         <v>0</v>
@@ -3875,27 +3815,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K5" s="33">
         <v>0</v>
@@ -3906,16 +3846,16 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="S5" s="33">
         <v>300000</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U5" s="33">
         <v>0</v>
@@ -3924,10 +3864,10 @@
         <v>300000</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X5" s="33" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Y5" s="33">
         <v>0</v>
@@ -3938,7 +3878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA7C1B-B0F0-4AC8-A907-82185EA45827}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3974,13 +3914,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3991,7 +3931,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -4002,10 +3942,161 @@
         <v>112</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45619C8-AAF7-43DE-831A-2BED068D71D3}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="7" customWidth="1"/>
+    <col min="9" max="11" width="23.26953125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="85.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25">
+        <v>903331332</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I11" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" display="mailto:nva@example.com" xr:uid="{F6D89C5D-FF1D-47B0-919B-E0B60A9F5428}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4046,37 +4137,37 @@
         <v>7</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
       <c r="B3" s="25" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
       <c r="B4" s="25" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -4084,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>48</v>
@@ -4096,7 +4187,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>49</v>
@@ -4120,10 +4211,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D8" s="25"/>
     </row>
@@ -4132,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>52</v>
@@ -4156,10 +4247,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D11" s="25"/>
     </row>
@@ -4172,157 +4263,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45619C8-AAF7-43DE-831A-2BED068D71D3}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.26953125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="7" customWidth="1"/>
-    <col min="9" max="11" width="23.26953125" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="85.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25">
-        <v>903331332</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I11" s="12"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="mailto:nva@example.com" xr:uid="{F6D89C5D-FF1D-47B0-919B-E0B60A9F5428}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863D4F3-258D-41FD-90A7-5BEE0F94C0B4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -4352,10 +4292,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>80</v>
@@ -4369,13 +4309,13 @@
         <v>119</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4388,12 +4328,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4408,17 +4348,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4444,7 +4384,7 @@
     </row>
     <row r="11" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -4465,7 +4405,7 @@
     </row>
     <row r="16" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -4474,7 +4414,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>80</v>
@@ -4482,15 +4422,15 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -4498,10 +4438,10 @@
     </row>
     <row r="19" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -4512,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -4539,7 +4479,7 @@
     </row>
     <row r="26" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -4548,290 +4488,277 @@
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="D27" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>249</v>
-      </c>
       <c r="E27" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="D31" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>263</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>303</v>
+      <c r="A42" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>304</v>
+      <c r="A43" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>285</v>
+      <c r="A44" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4916,114 +4843,114 @@
         <v>7</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>344</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
       <c r="B3" s="25" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C3" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>334</v>
-      </c>
       <c r="F3" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>345</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
       <c r="B4" s="25" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>335</v>
-      </c>
       <c r="F4" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="25" t="s">
         <v>338</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>343</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>336</v>
-      </c>
       <c r="F5" s="25" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -5034,13 +4961,13 @@
     <row r="6" spans="1:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
       <c r="B6" s="25" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -5053,28 +4980,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F7" s="25">
         <v>901123121</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -5084,28 +5011,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F8" s="25">
         <v>901123122</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -5115,28 +5042,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F9" s="25">
         <v>901123123</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -5146,28 +5073,28 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F10" s="25">
         <v>901123124</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -5486,84 +5413,84 @@
         <v>7</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
       <c r="B3" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>381</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>386</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
       <c r="B4" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>384</v>
-      </c>
       <c r="E4" s="25" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="25" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -5573,14 +5500,14 @@
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="39"/>
       <c r="G5" s="25" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -5628,11 +5555,11 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="27" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -5655,7 +5582,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
@@ -5682,7 +5609,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
@@ -5843,7 +5770,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>107</v>
@@ -5857,10 +5784,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -5877,10 +5804,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -5897,10 +5824,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -5917,10 +5844,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -5984,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>111</v>
@@ -5996,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>113</v>
@@ -6008,7 +5935,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>114</v>
@@ -6020,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>115</v>
@@ -6032,7 +5959,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>116</v>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327FB89-AC43-4547-B79A-497DE098AF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DD40C6-4954-4C8A-A567-41203BFC281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="10" activeTab="10" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="13" activeTab="19" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
   <sheets>
     <sheet name="#account.users" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,17 @@
     <sheet name="#saledata.price.taxcategory" sheetId="19" r:id="rId7"/>
     <sheet name="#saledata.price.tax" sheetId="21" r:id="rId8"/>
     <sheet name="#saledata.account.group" sheetId="11" r:id="rId9"/>
-    <sheet name="#saledata.account.type" sheetId="12" r:id="rId10"/>
-    <sheet name="#saledata.industry" sheetId="13" r:id="rId11"/>
-    <sheet name="#saledata.account" sheetId="15" r:id="rId12"/>
-    <sheet name="#saledata.product.uomgroup" sheetId="16" r:id="rId13"/>
-    <sheet name="#saledata.product.uom" sheetId="20" r:id="rId14"/>
-    <sheet name="#saledata.product.prodcategory" sheetId="18" r:id="rId15"/>
-    <sheet name="#saledata.product.manufacturer" sheetId="23" r:id="rId16"/>
-    <sheet name="#saledata.product" sheetId="22" r:id="rId17"/>
-    <sheet name="#saledata.salutation" sheetId="8" r:id="rId18"/>
-    <sheet name="#saledata.contact" sheetId="9" r:id="rId19"/>
-    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId20"/>
-    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId21"/>
+    <sheet name="#saledata.industry" sheetId="13" r:id="rId10"/>
+    <sheet name="#saledata.account" sheetId="15" r:id="rId11"/>
+    <sheet name="#saledata.product.uomgroup" sheetId="16" r:id="rId12"/>
+    <sheet name="#saledata.product.uom" sheetId="20" r:id="rId13"/>
+    <sheet name="#saledata.product.prodcategory" sheetId="18" r:id="rId14"/>
+    <sheet name="#saledata.product.manufacturer" sheetId="23" r:id="rId15"/>
+    <sheet name="#saledata.product" sheetId="22" r:id="rId16"/>
+    <sheet name="#saledata.salutation" sheetId="8" r:id="rId17"/>
+    <sheet name="#saledata.contact" sheetId="9" r:id="rId18"/>
+    <sheet name="#saledata.payment-term" sheetId="14" r:id="rId19"/>
+    <sheet name="Guidelines - Chỉ dẫn" sheetId="6" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="444">
   <si>
     <t>STT</t>
   </si>
@@ -446,15 +445,6 @@
   <si>
     <t>- Bắt buộc, định danh
 - Độ dài tối đa: 100
-- Ví dụ: AT001</t>
-  </si>
-  <si>
-    <t>- Tên của loại tài khoản
-- Ví dụ: Khách hàng</t>
-  </si>
-  <si>
-    <t>- Bắt buộc, định danh
-- Độ dài tối đa: 100
 - Ví dụ: 001</t>
   </si>
   <si>
@@ -526,12 +516,6 @@
 - Độ dài tối đa: 150
 - Tên của tài khoản
 - Ví dụ: Công Ty TNHH Minh Tâm Solution</t>
-  </si>
-  <si>
-    <t>- Bắt buộc
-- Danh sách mã liên kết với nhau bằng dấu phẩy.
-- Mã loại tài khoản tại #saledata.account.type
-- Ví dụ: AT001</t>
   </si>
   <si>
     <t>- Bắt buộc
@@ -1188,12 +1172,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>#saledata.account.type</t>
-  </si>
-  <si>
-    <t>Loại tài khoản</t>
-  </si>
-  <si>
     <t>#saledata.industry</t>
   </si>
   <si>
@@ -1270,9 +1248,6 @@
   </si>
   <si>
     <t>Account Group</t>
-  </si>
-  <si>
-    <t>Account Type</t>
   </si>
   <si>
     <t>Industry</t>
@@ -1590,24 +1565,6 @@
     <t>Type005</t>
   </si>
   <si>
-    <t>AT005</t>
-  </si>
-  <si>
-    <t>Đại lý cấp 1</t>
-  </si>
-  <si>
-    <t>AT006</t>
-  </si>
-  <si>
-    <t>Đại lý cấp 2</t>
-  </si>
-  <si>
-    <t>AT007</t>
-  </si>
-  <si>
-    <t>Nhà đầu tư</t>
-  </si>
-  <si>
     <t>IND001</t>
   </si>
   <si>
@@ -1764,6 +1721,12 @@
     <t>- Bắt buộc
 - Mã loại sản phẩm tại tính năng master data config/ item/ product types
 - Ví dụ: finished_goods</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Danh sách mã liên kết với nhau bằng dấu phẩy.
+- Mã loại tài khoản tại chức năng Master Data Config / Account/ Account Types
+- Ví dụ: AT001</t>
   </si>
 </sst>
 </file>
@@ -2654,93 +2617,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1359912D-CDDC-4C74-BCFB-CBE40EB489F2}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" style="7"/>
-    <col min="2" max="2" width="27" style="7" customWidth="1"/>
-    <col min="3" max="3" width="37.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="42.7265625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBC7503-D39D-4D5C-B33A-E4C15DD2E38F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2772,10 +2652,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2783,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="25"/>
     </row>
@@ -2795,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="25"/>
     </row>
@@ -2807,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="25"/>
     </row>
@@ -2819,10 +2699,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="25"/>
     </row>
@@ -2832,12 +2712,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A0AB4-CD70-4743-A933-50E4AFBD716C}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2861,46 +2741,46 @@
         <v>55</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="147.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2908,49 +2788,49 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2958,25 +2838,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -2988,7 +2868,7 @@
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
       <c r="P3" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2996,25 +2876,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="25">
         <v>1</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -3026,7 +2906,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
       <c r="P4" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3034,25 +2914,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E5" s="25">
         <v>1</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -3064,7 +2944,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3073,7 +2953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7E404F-3B5C-4DD3-81F3-6BF8C7BC03AA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3107,10 +2987,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3119,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3130,10 +3010,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F374A0-00F0-4E1C-9781-A1EAFC0D62B2}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -3171,16 +3051,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
@@ -3188,16 +3068,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -3205,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
@@ -3228,13 +3108,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" s="25">
         <v>0</v>
@@ -3251,13 +3131,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E5" s="25">
         <v>0</v>
@@ -3274,13 +3154,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E6" s="25">
         <v>0</v>
@@ -3297,13 +3177,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E7" s="25">
         <v>0</v>
@@ -3320,13 +3200,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E8" s="32">
         <v>1</v>
@@ -3344,7 +3224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103DB413-C452-4A76-9162-EF01DE565453}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3378,10 +3258,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3390,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3404,13 +3284,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -3418,13 +3298,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3432,7 +3312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783ACB7-D919-4F74-AC1A-D54D8522C4AB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -3466,10 +3346,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -3481,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D3" s="26"/>
     </row>
@@ -3493,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="D4" s="26"/>
     </row>
@@ -3505,7 +3385,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D5" s="26"/>
     </row>
@@ -3514,7 +3394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1C2273-23CD-4D05-8CA4-F0EB0A365E8D}">
   <dimension ref="A1:Y5"/>
   <sheetViews>
@@ -3557,70 +3437,70 @@
         <v>3</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>80</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="U1" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="T1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="145" x14ac:dyDescent="0.35">
@@ -3628,30 +3508,30 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
@@ -3659,29 +3539,29 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
@@ -3689,29 +3569,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D3" s="33">
         <v>123</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K3" s="33">
         <v>1</v>
@@ -3722,14 +3602,14 @@
       <c r="O3" s="33"/>
       <c r="P3" s="33"/>
       <c r="Q3" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R3" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U3" s="33">
         <v>0</v>
@@ -3738,10 +3618,10 @@
         <v>100000</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Y3" s="33">
         <v>0</v>
@@ -3752,27 +3632,27 @@
         <v>2</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K4" s="33">
         <v>0</v>
@@ -3783,16 +3663,16 @@
       <c r="O4" s="33"/>
       <c r="P4" s="33"/>
       <c r="Q4" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="S4" s="33">
         <v>200000</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U4" s="33">
         <v>0</v>
@@ -3801,10 +3681,10 @@
         <v>200000</v>
       </c>
       <c r="W4" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X4" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Y4" s="33">
         <v>0</v>
@@ -3815,27 +3695,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K5" s="33">
         <v>0</v>
@@ -3846,16 +3726,16 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="S5" s="33">
         <v>300000</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U5" s="33">
         <v>0</v>
@@ -3864,10 +3744,10 @@
         <v>300000</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X5" s="33" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Y5" s="33">
         <v>0</v>
@@ -3878,7 +3758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBA7C1B-B0F0-4AC8-A907-82185EA45827}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3914,13 +3794,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -3931,7 +3811,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3942,7 +3822,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +3830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A45619C8-AAF7-43DE-831A-2BED068D71D3}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -3980,31 +3860,31 @@
         <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -4012,31 +3892,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4044,26 +3924,26 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D3" s="25">
         <v>1</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25">
         <v>903331332</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -4097,6 +3977,72 @@
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" display="mailto:nva@example.com" xr:uid="{F6D89C5D-FF1D-47B0-919B-E0B60A9F5428}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863D4F3-258D-41FD-90A7-5BEE0F94C0B4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" style="7"/>
+    <col min="2" max="2" width="19.7265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="65.7265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="48.26953125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="172.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{7B04A94F-FAB7-487F-8C92-25C376949F35}">
+      <formula1>"0,1"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4137,37 +4083,37 @@
         <v>7</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
       <c r="B3" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>305</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
       <c r="B4" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>306</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -4175,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>48</v>
@@ -4187,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>49</v>
@@ -4211,10 +4157,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D8" s="25"/>
     </row>
@@ -4223,7 +4169,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>52</v>
@@ -4247,10 +4193,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D11" s="25"/>
     </row>
@@ -4263,77 +4209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863D4F3-258D-41FD-90A7-5BEE0F94C0B4}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" style="7"/>
-    <col min="2" max="2" width="19.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="65.7265625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="48.26953125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="172.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{7B04A94F-FAB7-487F-8C92-25C376949F35}">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B69A6E-98BC-434D-A419-FDB6C97F2A28}">
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4348,17 +4228,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -4384,7 +4264,7 @@
     </row>
     <row r="11" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -4405,7 +4285,7 @@
     </row>
     <row r="16" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -4414,7 +4294,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>80</v>
@@ -4422,15 +4302,15 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -4438,10 +4318,10 @@
     </row>
     <row r="19" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -4452,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -4479,7 +4359,7 @@
     </row>
     <row r="26" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -4488,277 +4368,264 @@
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>247</v>
-      </c>
       <c r="E27" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>258</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="22" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>299</v>
-      </c>
       <c r="C42" s="17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
     </row>
     <row r="43" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
     </row>
     <row r="44" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4843,114 +4710,114 @@
         <v>7</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
       <c r="B3" s="25" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
       <c r="B4" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>333</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -4961,13 +4828,13 @@
     <row r="6" spans="1:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
       <c r="B6" s="25" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -4980,28 +4847,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F7" s="25">
         <v>901123121</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
@@ -5011,28 +4878,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F8" s="25">
         <v>901123122</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
@@ -5042,28 +4909,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F9" s="25">
         <v>901123123</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
@@ -5073,28 +4940,28 @@
         <v>4</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F10" s="25">
         <v>901123124</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
@@ -5413,84 +5280,84 @@
         <v>7</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="39"/>
       <c r="B3" s="25" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="25" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="39"/>
       <c r="B4" s="25" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="25" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -5500,14 +5367,14 @@
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="25" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="39"/>
       <c r="G5" s="25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -5555,11 +5422,11 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="27" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -5582,7 +5449,7 @@
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
@@ -5609,7 +5476,7 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25" t="s">
@@ -5770,7 +5637,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>107</v>
@@ -5784,10 +5651,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
@@ -5804,10 +5671,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
@@ -5824,10 +5691,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -5844,10 +5711,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
@@ -5911,7 +5778,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>111</v>
@@ -5923,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>113</v>
@@ -5935,7 +5802,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>114</v>
@@ -5947,7 +5814,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>115</v>
@@ -5959,7 +5826,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>116</v>

--- a/apps/core/fimport/static/fimport/template/mega-import.xlsx
+++ b/apps/core/fimport/static/fimport/template/mega-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DD40C6-4954-4C8A-A567-41203BFC281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B98320-EA4A-4876-BF85-453034496394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="803" firstSheet="13" activeTab="19" xr2:uid="{ABCF866D-F0C2-489F-81F3-6B45D3E3629E}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="413">
   <si>
     <t>STT</t>
   </si>
@@ -1274,33 +1274,6 @@
     <t xml:space="preserve">Nhóm tài khoản </t>
   </si>
   <si>
-    <t>- Bắt buộc, định danh</t>
-  </si>
-  <si>
-    <t>- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang</t>
-  </si>
-  <si>
-    <t>- Ví dụ: BGD</t>
-  </si>
-  <si>
-    <t>- Bắt buộc</t>
-  </si>
-  <si>
-    <t>- Tên đại diện cho vai trò</t>
-  </si>
-  <si>
-    <t>- Ví dụ: Ban Giám Đốc</t>
-  </si>
-  <si>
-    <t>- Thành viên của phòng ban</t>
-  </si>
-  <si>
-    <t>- Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees.</t>
-  </si>
-  <si>
-    <t>- Ví dụ: EMP0001,EMP0002</t>
-  </si>
-  <si>
     <t>KDBL</t>
   </si>
   <si>
@@ -1322,87 +1295,6 @@
     <t>Kỹ thuật triển khai</t>
   </si>
   <si>
-    <t>- Độ dài tối đa 150</t>
-  </si>
-  <si>
-    <t>- Chỉ chứa chữ cái, số, gạch dưới, gạch ngang.</t>
-  </si>
-  <si>
-    <t>- Mã định danh cho nhân viên</t>
-  </si>
-  <si>
-    <t>- Ví dụ: EMP0001</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 100</t>
-  </si>
-  <si>
-    <t>- Tên của nhân viên</t>
-  </si>
-  <si>
-    <t>- Ví dụ: A</t>
-  </si>
-  <si>
-    <t>- Họ của nhân viên</t>
-  </si>
-  <si>
-    <t>- Ví dụ: Nguyễn Văn</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 150</t>
-  </si>
-  <si>
-    <t>- Địa chỉ thư điện tử của nhân viên</t>
-  </si>
-  <si>
-    <t>- Ví dụ: anv@example.com</t>
-  </si>
-  <si>
-    <t>- Độ dài tối đa: 25</t>
-  </si>
-  <si>
-    <t>- Định dạng số điện thoại ở VN</t>
-  </si>
-  <si>
-    <t>- Số điện thoại liên lạc của nhân viên</t>
-  </si>
-  <si>
-    <t>- Ví dụ: 0987654321</t>
-  </si>
-  <si>
-    <t>- Mã người dùng tại #account.users</t>
-  </si>
-  <si>
-    <t>- Người dùng liên kết với nhân viên</t>
-  </si>
-  <si>
-    <t>- Ví dụ: anv</t>
-  </si>
-  <si>
-    <t>- Định dạng ngày-tháng-năm (DD-MM-YYYY)</t>
-  </si>
-  <si>
-    <t>- Ví dụ: 31-01-1970</t>
-  </si>
-  <si>
-    <t>- Mã của phòng ban tại #hr.groups</t>
-  </si>
-  <si>
-    <t>- Phòng ban mà nhân viên thuộc về</t>
-  </si>
-  <si>
-    <t>- Ví dụ: QLDH</t>
-  </si>
-  <si>
-    <t>- Mã của vai trò tại #hr.roles</t>
-  </si>
-  <si>
-    <t>- Danh sách mã vai trò liên kết với nhau bằng dấu phẩy.</t>
-  </si>
-  <si>
-    <t>- Ví dụ: QL</t>
-  </si>
-  <si>
     <t>HQ002</t>
   </si>
   <si>
@@ -1479,51 +1371,6 @@
   </si>
   <si>
     <t>HQ007</t>
-  </si>
-  <si>
-    <t>- Mã của nhóm (còn được gọi là phòng ban)</t>
-  </si>
-  <si>
-    <t>- Bao gồm chữ cái, số, gạch ngang, gạch dưới.</t>
-  </si>
-  <si>
-    <t>Ví dụ: QLDH</t>
-  </si>
-  <si>
-    <t>- Tên của nhóm</t>
-  </si>
-  <si>
-    <t>- Ví dụ: Quản Lý Điều Hành</t>
-  </si>
-  <si>
-    <t>- Mã định danh của phân cấp nhóm tại #hr.groups.level</t>
-  </si>
-  <si>
-    <t>- Ví dụ: 1</t>
-  </si>
-  <si>
-    <t>- Mã định danh của nhóm mà phân bổ cấp trên/lớp trên cho nhóm này tại #hr.groups</t>
-  </si>
-  <si>
-    <t>- Vui lòng đặt dòng không có lớp cha ở trên để đảm bảo nó được tạo trước khi được tại các con.</t>
-  </si>
-  <si>
-    <t>- Nhân viên liên kết sẽ tự động cập nhật thành nhóm này</t>
-  </si>
-  <si>
-    <t>- Mã nhân viên của trưởng quản lý nhóm</t>
-  </si>
-  <si>
-    <t>- Tiêu đề của quản lý trưởng</t>
-  </si>
-  <si>
-    <t>- Ví dụ: Tổng Giám Đốc</t>
-  </si>
-  <si>
-    <t>- Mô tả của quản lý phó</t>
-  </si>
-  <si>
-    <t>- Ví dụ: Phó Giám Đốc</t>
   </si>
   <si>
     <t>Trưởng phòng Kinh doanh</t>
@@ -1727,6 +1574,110 @@
 - Danh sách mã liên kết với nhau bằng dấu phẩy.
 - Mã loại tài khoản tại chức năng Master Data Config / Account/ Account Types
 - Ví dụ: AT001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Bắt buộc, định danh
+  - Chỉ chứa chữ cái, số, gạch dưới, gạch ngang
+  - Ví dụ: BGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Bắt buộc
+ - Tên đại diện cho vai trò
+ - Ví dụ: Ban Giám Đốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Thành viên của phòng ban
+ - Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees
+ - Ví dụ: EMP0001,EMP0002</t>
+  </si>
+  <si>
+    <t>1. Bắt buộc, định danh
+2. Độ dài tối đa 100
+3. Chỉ chứa chữ cái, số, gạch dưới, gạch ngang.
+4.Mã định danh cho nhân viên
+5.Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>1.Bắt buộc
+2.Độ dài tối đa: 100
+3.Tên của nhân viên
+4.Ví dụ: A</t>
+  </si>
+  <si>
+    <t>1.Bắt buộc
+2.Độ dài tối đa: 100
+3.Họ của nhân viên
+4.Ví dụ: Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>1.Bắt buộc
+2.Độ dài tối đa: 150
+3.Địa chỉ thư điện tử của nhân viên
+4.Ví dụ: anv@example.com</t>
+  </si>
+  <si>
+    <t>1.Bắt buộc
+2.Độ dài tối đa: 25
+3.Định dạng số điện thoại ở VN
+4.Số điện thoại liên lạc của nhân viên
+5.Ví dụ: 0987654321</t>
+  </si>
+  <si>
+    <t>1.Mã người dùng tại #account.users
+2.Người dùng liên kết với nhân viên
+3.Ví dụ: anv</t>
+  </si>
+  <si>
+    <t>1.Định dạng ngày-tháng-năm (DD-MM-YYYY)
+2.Ví dụ: 31-01-1970</t>
+  </si>
+  <si>
+    <t>1.Mã của phòng ban tại #hr.groups
+2.Phòng ban mà nhân viên thuộc về</t>
+  </si>
+  <si>
+    <t>1.Mã của vai trò tại #hr.roles
+2.Danh sách mã vai trò liên kết với nhau bằng dấu phẩy.
+3.Ví dụ: QL</t>
+  </si>
+  <si>
+    <t>- Bắt buộc, định danh
+- Mã của nhóm (còn được gọi là phòng ban)
+- Bao gồm chữ cái, số, gạch ngang, gạch dưới.
+-Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Tên của nhóm
+- Ví dụ: Quản Lý Điều Hành</t>
+  </si>
+  <si>
+    <t>- Bắt buộc
+- Mã định danh của phân cấp nhóm tại #hr.groups.level
+- Ví dụ: 1</t>
+  </si>
+  <si>
+    <t>- Mã định danh của nhóm mà phân bổ cấp trên/lớp trên cho nhóm này tại #hr.groups
+- Vui lòng đặt dòng không có lớp cha ở trên để đảm bảo nó được tạo trước khi được tại các con.
+- Ví dụ: QLDH</t>
+  </si>
+  <si>
+    <t>- Thành viên của phòng ban
+- Danh sách mã nhân viên liên kết với nhau bằng dấu phẩy #hr.employees.
+- Nhân viên liên kết sẽ tự động cập nhật thành nhóm này
+- Ví dụ: EMP0001,EMP0002</t>
+  </si>
+  <si>
+    <t>- Mã nhân viên của trưởng quản lý nhóm
+- Ví dụ: EMP0001</t>
+  </si>
+  <si>
+    <t>- Tiêu đề của quản lý trưởng
+- Ví dụ: Tổng Giám Đốc</t>
+  </si>
+  <si>
+    <t>- Mô tả của quản lý phó
+- Ví dụ: Phó Giám Đốc</t>
   </si>
 </sst>
 </file>
@@ -1947,7 +1898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2016,9 +1967,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2056,12 +2004,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2084,6 +2026,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2659,52 +2613,52 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2794,7 +2748,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>139</v>
@@ -2834,116 +2788,116 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25">
+      <c r="F3" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24">
         <v>311001023</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25">
+      <c r="F4" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24">
         <v>311001014</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>1</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25">
+      <c r="F5" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24">
         <v>311001015</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2995,24 +2949,24 @@
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>401</v>
+      <c r="C3" s="25" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3077,147 +3031,147 @@
         <v>178</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>403</v>
+      <c r="C3" s="25" t="s">
+        <v>352</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>1</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>404</v>
+      <c r="C4" s="25" t="s">
+        <v>353</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>1</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>405</v>
+      <c r="C5" s="25" t="s">
+        <v>354</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>406</v>
+      <c r="C6" s="25" t="s">
+        <v>355</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>407</v>
+      <c r="C7" s="25" t="s">
+        <v>356</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>1</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>409</v>
+      <c r="B8" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>358</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="E8" s="32">
+        <v>351</v>
+      </c>
+      <c r="E8" s="31">
         <v>1</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3266,45 +3220,45 @@
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>413</v>
+      <c r="B3" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>416</v>
+      <c r="B4" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>419</v>
+      <c r="B5" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3346,48 +3300,48 @@
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="26"/>
+      <c r="C3" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" s="26"/>
+      <c r="C4" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3452,7 +3406,7 @@
         <v>160</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>161</v>
@@ -3482,16 +3436,16 @@
         <v>169</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>170</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>171</v>
@@ -3519,19 +3473,19 @@
         <v>176</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>177</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>178</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
@@ -3545,13 +3499,13 @@
         <v>180</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>434</v>
+        <v>383</v>
       </c>
       <c r="T2" s="16" t="s">
         <v>181</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="16" t="s">
@@ -3565,191 +3519,191 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="33">
+      <c r="B3" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="32">
         <v>123</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="32">
         <v>1</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="26" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="R3" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="26" t="s">
+      <c r="R3" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="S3" s="32"/>
+      <c r="T3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U3" s="32">
         <v>0</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="25">
         <v>100000</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="X3" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y3" s="33">
+      <c r="X3" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y3" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>422</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="26" t="s">
+      <c r="B4" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="32">
         <v>0</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="26" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="R4" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="S4" s="33">
+      <c r="R4" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="S4" s="32">
         <v>200000</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="T4" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="32">
         <v>0</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="25">
         <v>200000</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="X4" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y4" s="33">
+      <c r="X4" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y4" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>428</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="26" t="s">
+      <c r="B5" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="32">
         <v>0</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="26" t="s">
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="R5" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="S5" s="33">
+      <c r="R5" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="S5" s="32">
         <v>300000</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="T5" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="U5" s="33">
+      <c r="U5" s="32">
         <v>0</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="25">
         <v>300000</v>
       </c>
-      <c r="W5" s="26" t="s">
+      <c r="W5" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="X5" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y5" s="33">
+      <c r="X5" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y5" s="32">
         <v>0</v>
       </c>
     </row>
@@ -3920,33 +3874,33 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="25">
+      <c r="B3" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24">
         <v>903331332</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>431</v>
-      </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="I3" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I4" s="12"/>
@@ -4049,10 +4003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C373C485-720B-481D-9EE6-F43D8158DF65}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4065,145 +4019,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="46" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="45">
+        <v>5</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="45">
+        <v>6</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="45">
+        <v>7</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="25" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="25" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="25">
-        <v>3</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
-        <v>7</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="25"/>
+      <c r="D9" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4213,7 +4140,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4263,13 +4190,13 @@
       <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
@@ -4284,23 +4211,23 @@
       <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="3" t="s">
         <v>234</v>
       </c>
@@ -4309,40 +4236,40 @@
       <c r="A18" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -4358,13 +4285,13 @@
       <c r="A25"/>
     </row>
     <row r="26" spans="1:5" ht="28.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
@@ -4649,10 +4576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F2B7B4-0119-40B2-9AE3-A031B16A0EEC}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4671,441 +4598,336 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="146.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="25" t="s">
+      <c r="B2" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="24">
+        <v>901123121</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="E4" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="24">
+        <v>901123122</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="C5" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="24">
+        <v>901123123</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="25" t="s">
+      <c r="E6" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="F6" s="24">
+        <v>901123124</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="1:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
-      <c r="B6" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="H6" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="27">
-        <v>1</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="25">
-        <v>901123121</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="27">
-        <v>2</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="25">
-        <v>901123122</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="27">
-        <v>3</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>357</v>
-      </c>
-      <c r="F9" s="25">
-        <v>901123123</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="27">
-        <v>4</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="F10" s="25">
-        <v>901123124</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="mailto:huy.thieu@example.com" xr:uid="{4A4BF452-E085-4C44-A19D-95C21B647037}"/>
-    <hyperlink ref="E8" r:id="rId2" display="mailto:hien.pham@example.com" xr:uid="{60160983-CEC5-4076-9255-285C06F3D878}"/>
-    <hyperlink ref="E9" r:id="rId3" display="mailto:trung.duong@example.com" xr:uid="{6C206E72-BFB0-42F0-98FF-885550E07C35}"/>
-    <hyperlink ref="E10" r:id="rId4" display="mailto:linh.nguyen@example.com" xr:uid="{03D36B46-AE10-4A7E-A689-ACDC9359BA2C}"/>
+    <hyperlink ref="E3" r:id="rId1" display="mailto:huy.thieu@example.com" xr:uid="{4A4BF452-E085-4C44-A19D-95C21B647037}"/>
+    <hyperlink ref="E4" r:id="rId2" display="mailto:hien.pham@example.com" xr:uid="{60160983-CEC5-4076-9255-285C06F3D878}"/>
+    <hyperlink ref="E5" r:id="rId3" display="mailto:trung.duong@example.com" xr:uid="{6C206E72-BFB0-42F0-98FF-885550E07C35}"/>
+    <hyperlink ref="E6" r:id="rId4" display="mailto:linh.nguyen@example.com" xr:uid="{03D36B46-AE10-4A7E-A689-ACDC9359BA2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5218,10 +5040,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B36471-B49B-4FB2-BB36-0F0FCC8EE11D}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5241,255 +5063,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="46" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="92" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:11" ht="174" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="45" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="25" t="s">
+      <c r="G2" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="45">
+        <v>1</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="45">
+        <v>2</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="45">
+        <v>3</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="45">
+        <v>2</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
-        <v>1</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="45">
+        <v>4</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="45">
+        <v>2</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="25">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="25">
-        <v>2</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="25">
-        <v>2</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="25">
-        <v>2</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
-        <v>4</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="25">
-        <v>2</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="F2:F5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5573,16 +5320,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5627,102 +5374,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="B3" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="25">
         <v>1</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>1</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="B5" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="B6" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>10</v>
       </c>
     </row>
@@ -5774,64 +5521,64 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>393</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
